--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/G89.2023.T20.EG3/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive\Escritorio\Desarrollo de Software\G89.2023.T20.EG3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C936D-26EC-4A44-9994-B07B47458C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922B4995-BA05-45C2-A004-3B4754C13E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GE3 2023 F1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -92,9 +92,6 @@
     <t>"C/LISBOA,4, MADRID, SPAIN"</t>
   </si>
   <si>
-    <t>"+34123456789"</t>
-  </si>
-  <si>
     <t>"28005"</t>
   </si>
   <si>
@@ -107,40 +104,16 @@
     <t>CE_NV_2</t>
   </si>
   <si>
-    <t>PRODUCT ID NOT NUMBER</t>
-  </si>
-  <si>
     <t>842169142322A</t>
   </si>
   <si>
     <t>"PREMIUM"</t>
   </si>
   <si>
-    <t>Exception: Product Id not valid</t>
-  </si>
-  <si>
     <t>CE_NV_3</t>
   </si>
   <si>
     <t>PRODUCT ID NOT CHECK SUM</t>
-  </si>
-  <si>
-    <t>CE_V_8</t>
-  </si>
-  <si>
-    <t>ecc7f631f98930aca6e183c6e505dFFF</t>
-  </si>
-  <si>
-    <t>CE_NV_9</t>
-  </si>
-  <si>
-    <t>ORDER_TYPE WRONG</t>
-  </si>
-  <si>
-    <t>"PRE"</t>
-  </si>
-  <si>
-    <t>Exception : order type wrong</t>
   </si>
   <si>
     <t>OUTPUT</t>
@@ -211,28 +184,229 @@
     <t>Path considering that the input is not found in the file</t>
   </si>
   <si>
-    <t>PRODUCT ID EMPTY</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>CE_NV_4</t>
-  </si>
-  <si>
-    <t>too long</t>
-  </si>
-  <si>
-    <t>too short</t>
-  </si>
-  <si>
-    <t>limites x2</t>
-  </si>
-  <si>
-    <t>falta alto</t>
-  </si>
-  <si>
-    <t>todo bien</t>
+    <t>"regular"</t>
+  </si>
+  <si>
+    <t>"premiums"</t>
+  </si>
+  <si>
+    <t>PRODUCT ID NOT (EA13)NUMBER</t>
+  </si>
+  <si>
+    <t>"regula"</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE NOT VALID (not a string)</t>
+  </si>
+  <si>
+    <t>ADDRES</t>
+  </si>
+  <si>
+    <t>CE_V_12</t>
+  </si>
+  <si>
+    <t>CE_NV_13</t>
+  </si>
+  <si>
+    <t>ADDRESS_NO_SPACES</t>
+  </si>
+  <si>
+    <t>"C/LISBOA4MADRIDSPAIN"</t>
+  </si>
+  <si>
+    <t>Exception: Addres must contain a space</t>
+  </si>
+  <si>
+    <t>CE_NV_14</t>
+  </si>
+  <si>
+    <t>ADDRES_TYPE WRONG</t>
+  </si>
+  <si>
+    <t>Exception: Address type must by str</t>
+  </si>
+  <si>
+    <t>CE_NV_15</t>
+  </si>
+  <si>
+    <t>ADDRES_LENGTH SMALL</t>
+  </si>
+  <si>
+    <t>"MICASA, MADRID"</t>
+  </si>
+  <si>
+    <t>Exception: Address too short</t>
+  </si>
+  <si>
+    <t>CE_NV_16</t>
+  </si>
+  <si>
+    <t>ADDRES_LENGTH BIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"CALLE DE NUESTRO SEÑOR SATORU GOJO EL BENEVOLENTE QUE CON SUS ARTES MARCIALES Y SU ESPECIAL AURA MURIÓ, MADRID, ESPAÑA"  </t>
+  </si>
+  <si>
+    <t>Exception: Address too long</t>
+  </si>
+  <si>
+    <t>CE_NV_8</t>
+  </si>
+  <si>
+    <t>CE_NV_9</t>
+  </si>
+  <si>
+    <t>CE_NV_10</t>
+  </si>
+  <si>
+    <t>CE_V_5</t>
+  </si>
+  <si>
+    <t>CE_V_6</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER_TYPE NOT VALID</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE NOT VALID TOO LONG</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE NOT VALID TOO SHORT</t>
+  </si>
+  <si>
+    <t>CE_V_17</t>
+  </si>
+  <si>
+    <t>"DEATH_STAR"</t>
+  </si>
+  <si>
+    <t>Exception: Phone_number is not a number</t>
+  </si>
+  <si>
+    <t>"123456789"</t>
+  </si>
+  <si>
+    <t>CE_NV_18</t>
+  </si>
+  <si>
+    <t>VALD</t>
+  </si>
+  <si>
+    <t>CE_V_19</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER VALID</t>
+  </si>
+  <si>
+    <t>¿Valid Phone number?</t>
+  </si>
+  <si>
+    <t>CE_NV_XX</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER TOO SHORT</t>
+  </si>
+  <si>
+    <t>"123456"</t>
+  </si>
+  <si>
+    <t>Exception: Phone_number too short</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER TOO LONG</t>
+  </si>
+  <si>
+    <t>"123456789123456"</t>
+  </si>
+  <si>
+    <t>Exception: Phone_number too long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT VALID </t>
+  </si>
+  <si>
+    <t>ZIP_CODE BELLOW 01000</t>
+  </si>
+  <si>
+    <t>Exception: Zip_Code bellow smallest valid (01000)</t>
+  </si>
+  <si>
+    <t>ZIP_CODE ABOVE 52999</t>
+  </si>
+  <si>
+    <t>Exception: Zip_Code above biggest valid (52999)</t>
+  </si>
+  <si>
+    <t>ZIP_CODE TOO FEW DIGITS</t>
+  </si>
+  <si>
+    <t>Exception: Zip_Code too few digits</t>
+  </si>
+  <si>
+    <t>ZIP_CODE NON INTEGER VALUE</t>
+  </si>
+  <si>
+    <t>Exception: Zip_Code must be an integer {01000-52999}</t>
+  </si>
+  <si>
+    <t>"942"</t>
+  </si>
+  <si>
+    <t>"53942"</t>
+  </si>
+  <si>
+    <t>"2382"</t>
+  </si>
+  <si>
+    <t>"La casa de paco"</t>
+  </si>
+  <si>
+    <t>ZIP_CODE FLOAT VALUE</t>
+  </si>
+  <si>
+    <t>"23.82"</t>
+  </si>
+  <si>
+    <t>Exception: Phone_number is not of type FLOAT</t>
+  </si>
+  <si>
+    <t>"123456.789123456"</t>
+  </si>
+  <si>
+    <t>Exception: Order Type Value too long</t>
+  </si>
+  <si>
+    <t>Exception: Order Type value is not a string</t>
+  </si>
+  <si>
+    <t>Exception: Order Type Value too short</t>
+  </si>
+  <si>
+    <t>"654314159"</t>
+  </si>
+  <si>
+    <t>PRODUCT ID TOO SHORT</t>
+  </si>
+  <si>
+    <t>PRODUCT ID TOO LONG</t>
+  </si>
+  <si>
+    <t>Exception: Product Id not valid, not an EAN13 code</t>
+  </si>
+  <si>
+    <t>Exception: Product Id not valid, id too short</t>
+  </si>
+  <si>
+    <t>Exception: Product Id not valid, id too long</t>
+  </si>
+  <si>
+    <t>Exception: Product Id not valid, id must be numeric</t>
+  </si>
+  <si>
+    <t>e01521684a7f9535e9fa098a2b86565f</t>
+  </si>
+  <si>
+    <t>"PreMIuM"</t>
   </si>
 </sst>
 </file>
@@ -251,57 +425,21 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,8 +454,53 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +519,24 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -349,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,19 +558,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +680,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N45">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="I/O"/>
@@ -729,27 +932,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1001"/>
+  <dimension ref="A1:AD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="1" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="70.85546875" customWidth="1"/>
-    <col min="14" max="30" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="70.88671875" customWidth="1"/>
+    <col min="14" max="30" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
@@ -834,7 +1037,7 @@
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="16">
         <v>8421691423220</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -844,13 +1047,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -868,31 +1071,31 @@
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M3" s="6" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -910,15 +1113,15 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="16">
         <v>8421691423225</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -928,13 +1131,13 @@
         <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M4" s="6" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -948,35 +1151,33 @@
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>60</v>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="16">
+        <v>8421691</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="N5" s="4"/>
     </row>
@@ -990,24 +1191,34 @@
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="16">
+        <v>8421691423220150</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
@@ -1020,27 +1231,43 @@
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1053,28 +1280,28 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="16">
         <v>8421691423220</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="N8" s="4"/>
     </row>
@@ -1082,385 +1309,833 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="13">
+        <v>72</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="16">
         <v>8421691423220</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M9" s="6" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:30" ht="16.5" customHeight="1">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I10" s="6">
+        <v>123</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6">
+        <v>12345678</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="6"/>
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="6"/>
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="4">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="4">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="6"/>
+      <c r="G24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="4">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="4">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="6"/>
+      <c r="G26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="4">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="4">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="16">
+        <v>8421691423220</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1472,13 +2147,13 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="4"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="6"/>
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1490,31 +2165,31 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="6"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="4">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="4"/>
+      <c r="L31" s="14"/>
       <c r="M31" s="6"/>
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1522,17 +2197,17 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1549,23 +2224,12 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="4">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1575,22 +2239,19 @@
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="4">
-        <v>32</v>
-      </c>
       <c r="B35" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1601,13 +2262,20 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -1638,9 +2306,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1656,9 +2322,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1674,9 +2338,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -1750,7 +2412,22 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="48" spans="1:14" ht="15.75" customHeight="1"/>
@@ -2707,11 +3384,12 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2720,70 +3398,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="62.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
-    <col min="9" max="10" width="33.7109375" customWidth="1"/>
-    <col min="11" max="28" width="10.5703125" customWidth="1"/>
+    <col min="1" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="62.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
+    <col min="9" max="10" width="33.6640625" customWidth="1"/>
+    <col min="11" max="28" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="4">
@@ -2793,25 +3473,25 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -4287,15 +4967,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="25" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="7" width="33.6640625" customWidth="1"/>
+    <col min="8" max="25" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -4303,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -4312,10 +4992,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -4326,11 +5006,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>

--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive\Escritorio\Desarrollo de Software\G89.2023.T20.EG3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/G89.2023.T20.EG3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922B4995-BA05-45C2-A004-3B4754C13E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFDF80A-EA87-B04D-B311-742378C84168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GE3 2023 F1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="148">
   <si>
     <t>#</t>
   </si>
@@ -104,9 +104,6 @@
     <t>CE_NV_2</t>
   </si>
   <si>
-    <t>842169142322A</t>
-  </si>
-  <si>
     <t>"PREMIUM"</t>
   </si>
   <si>
@@ -117,18 +114,6 @@
   </si>
   <si>
     <t>OUTPUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">add a regular and a family </t>
-  </si>
-  <si>
-    <t xml:space="preserve">valid </t>
-  </si>
-  <si>
-    <t>add a regular and 2 family</t>
   </si>
   <si>
     <t>NODE</t>
@@ -187,15 +172,9 @@
     <t>"regular"</t>
   </si>
   <si>
-    <t>"premiums"</t>
-  </si>
-  <si>
     <t>PRODUCT ID NOT (EA13)NUMBER</t>
   </si>
   <si>
-    <t>"regula"</t>
-  </si>
-  <si>
     <t>ORDER_TYPE NOT VALID (not a string)</t>
   </si>
   <si>
@@ -244,9 +223,6 @@
     <t>ADDRES_LENGTH BIG</t>
   </si>
   <si>
-    <t xml:space="preserve">"CALLE DE NUESTRO SEÑOR SATORU GOJO EL BENEVOLENTE QUE CON SUS ARTES MARCIALES Y SU ESPECIAL AURA MURIÓ, MADRID, ESPAÑA"  </t>
-  </si>
-  <si>
     <t>Exception: Address too long</t>
   </si>
   <si>
@@ -256,24 +232,12 @@
     <t>CE_NV_9</t>
   </si>
   <si>
-    <t>CE_NV_10</t>
-  </si>
-  <si>
-    <t>CE_V_5</t>
-  </si>
-  <si>
     <t>CE_V_6</t>
   </si>
   <si>
     <t>PHONE_NUMBER_TYPE NOT VALID</t>
   </si>
   <si>
-    <t>ORDER_TYPE NOT VALID TOO LONG</t>
-  </si>
-  <si>
-    <t>ORDER_TYPE NOT VALID TOO SHORT</t>
-  </si>
-  <si>
     <t>CE_V_17</t>
   </si>
   <si>
@@ -301,24 +265,15 @@
     <t>¿Valid Phone number?</t>
   </si>
   <si>
-    <t>CE_NV_XX</t>
-  </si>
-  <si>
     <t>PHONE_NUMBER TOO SHORT</t>
   </si>
   <si>
-    <t>"123456"</t>
-  </si>
-  <si>
     <t>Exception: Phone_number too short</t>
   </si>
   <si>
     <t>PHONE_NUMBER TOO LONG</t>
   </si>
   <si>
-    <t>"123456789123456"</t>
-  </si>
-  <si>
     <t>Exception: Phone_number too long</t>
   </si>
   <si>
@@ -340,48 +295,18 @@
     <t>ZIP_CODE TOO FEW DIGITS</t>
   </si>
   <si>
-    <t>Exception: Zip_Code too few digits</t>
-  </si>
-  <si>
     <t>ZIP_CODE NON INTEGER VALUE</t>
   </si>
   <si>
     <t>Exception: Zip_Code must be an integer {01000-52999}</t>
   </si>
   <si>
-    <t>"942"</t>
-  </si>
-  <si>
-    <t>"53942"</t>
-  </si>
-  <si>
-    <t>"2382"</t>
-  </si>
-  <si>
     <t>"La casa de paco"</t>
   </si>
   <si>
-    <t>ZIP_CODE FLOAT VALUE</t>
-  </si>
-  <si>
-    <t>"23.82"</t>
-  </si>
-  <si>
-    <t>Exception: Phone_number is not of type FLOAT</t>
-  </si>
-  <si>
-    <t>"123456.789123456"</t>
-  </si>
-  <si>
-    <t>Exception: Order Type Value too long</t>
-  </si>
-  <si>
     <t>Exception: Order Type value is not a string</t>
   </si>
   <si>
-    <t>Exception: Order Type Value too short</t>
-  </si>
-  <si>
     <t>"654314159"</t>
   </si>
   <si>
@@ -406,14 +331,158 @@
     <t>e01521684a7f9535e9fa098a2b86565f</t>
   </si>
   <si>
-    <t>"PreMIuM"</t>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>CE_NV_4</t>
+  </si>
+  <si>
+    <t>CE_NV_5</t>
+  </si>
+  <si>
+    <t>CE_V_10</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE VALID</t>
+  </si>
+  <si>
+    <t>"premium"</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE NOT UPPER_CASE</t>
+  </si>
+  <si>
+    <t>ADDRES_TWO_SPACES</t>
+  </si>
+  <si>
+    <t>ADDRES_ONE_SPACE</t>
+  </si>
+  <si>
+    <t>"C/LISBOA MARINERA,4, MADRID, SPAIN"</t>
+  </si>
+  <si>
+    <t>CALLE DE NUESTRO SEÑOR SATORU GOJO EL BENEVOLENTE QUE CON SUS ARTES MARCIALES NATURAL, MADRID, ESPAÑA</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>CE_V_11</t>
+  </si>
+  <si>
+    <t>ADDRES CORRECT</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER EXACT SIZE</t>
+  </si>
+  <si>
+    <t>CE_NV_20</t>
+  </si>
+  <si>
+    <t>CE_NV_21</t>
+  </si>
+  <si>
+    <t>CE_NV_22</t>
+  </si>
+  <si>
+    <t>"65431415"</t>
+  </si>
+  <si>
+    <t>ZIP_CODE TOO MANY DIGITS</t>
+  </si>
+  <si>
+    <t>"00999"</t>
+  </si>
+  <si>
+    <t>"53000"</t>
+  </si>
+  <si>
+    <t>"520000"</t>
+  </si>
+  <si>
+    <t>"0011"</t>
+  </si>
+  <si>
+    <t>"6942069420"</t>
+  </si>
+  <si>
+    <t>"8421691423220"</t>
+  </si>
+  <si>
+    <t>"84216914232202"</t>
+  </si>
+  <si>
+    <t>"842169142322"</t>
+  </si>
+  <si>
+    <t>"842169142322A"</t>
+  </si>
+  <si>
+    <t>FILE DOES NOT EXIST</t>
+  </si>
+  <si>
+    <t>FILE WRONG STRCUTRE</t>
+  </si>
+  <si>
+    <t>FILE IS NOT MODIFIED AS INVALID INPUT</t>
+  </si>
+  <si>
+    <t>FILE IS CORRECT</t>
+  </si>
+  <si>
+    <t>OUTPUT FILE</t>
+  </si>
+  <si>
+    <t>¿?¿?</t>
+  </si>
+  <si>
+    <t>"84216914232"</t>
+  </si>
+  <si>
+    <t>CE_V_23</t>
+  </si>
+  <si>
+    <t>CE_NV_24</t>
+  </si>
+  <si>
+    <t>CE_NV_25</t>
+  </si>
+  <si>
+    <t>CE_NV_26</t>
+  </si>
+  <si>
+    <t>CE_NV_27</t>
+  </si>
+  <si>
+    <t>CE_NV_28</t>
+  </si>
+  <si>
+    <t>CE_NV_29</t>
+  </si>
+  <si>
+    <t>CE_NV_30</t>
+  </si>
+  <si>
+    <t>CE_NV_31</t>
+  </si>
+  <si>
+    <t>CE_NV_32</t>
+  </si>
+  <si>
+    <t>CE_V_7</t>
+  </si>
+  <si>
+    <t>Exception: Zip_Code has too many digits</t>
+  </si>
+  <si>
+    <t>Exception: Zip_Code has too few digits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,19 +529,6 @@
       <name val="JetBrains Mono"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -492,12 +548,6 @@
       <color rgb="FF008000"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="7">
@@ -550,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -560,18 +610,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,7 +730,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N47">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="I/O"/>
@@ -932,27 +982,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1002"/>
+  <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="19" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="70.88671875" customWidth="1"/>
-    <col min="14" max="30" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="47.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="30" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
@@ -1037,8 +1091,8 @@
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16">
-        <v>8421691423220</v>
+      <c r="H2" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
@@ -1047,13 +1101,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -1077,25 +1131,25 @@
         <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -1116,13 +1170,13 @@
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="16">
-        <v>8421691423225</v>
+      <c r="H4" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>19</v>
@@ -1131,13 +1185,13 @@
         <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -1149,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -1157,12 +1211,14 @@
       <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="G5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="16">
-        <v>8421691</v>
+        <v>92</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>19</v>
@@ -1171,13 +1227,13 @@
         <v>20</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N5" s="4"/>
     </row>
@@ -1189,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -1197,12 +1253,14 @@
       <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="G6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="16">
-        <v>8421691423220150</v>
+        <v>93</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>19</v>
@@ -1211,13 +1269,13 @@
         <v>20</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="N6" s="4"/>
     </row>
@@ -1238,24 +1296,24 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="16">
-        <v>8421691423220</v>
+        <v>103</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -1280,24 +1338,24 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="16">
-        <v>8421691423220</v>
+        <v>103</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -1322,28 +1380,28 @@
         <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="16">
-        <v>8421691423220</v>
+        <v>105</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="N9" s="4"/>
     </row>
@@ -1364,13 +1422,13 @@
         <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="16">
-        <v>8421691423220</v>
+        <v>47</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I10" s="6">
         <v>123</v>
@@ -1379,19 +1437,19 @@
         <v>20</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>14</v>
@@ -1400,77 +1458,65 @@
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="16">
-        <v>8421691423220</v>
+        <v>112</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="16">
-        <v>8421691423220</v>
+        <v>106</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
@@ -1481,37 +1527,37 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="16">
-        <v>8421691423220</v>
+        <v>107</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N13" s="4"/>
     </row>
@@ -1523,37 +1569,37 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="16">
-        <v>8421691423220</v>
+        <v>51</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="6">
-        <v>12345678</v>
+      <c r="J14" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -1568,34 +1614,34 @@
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="16">
-        <v>8421691423220</v>
+        <v>55</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>66</v>
+      <c r="J15" s="6">
+        <v>12345678</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -1607,37 +1653,37 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="16">
-        <v>8421691423220</v>
+        <v>58</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -1648,38 +1694,38 @@
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>80</v>
+      <c r="F17" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="16">
-        <v>8421691423220</v>
+        <v>62</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>22</v>
+      <c r="M17" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="N17" s="4"/>
     </row>
@@ -1700,28 +1746,28 @@
         <v>23</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="16">
-        <v>8421691423220</v>
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>82</v>
+      <c r="M18" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N18" s="4"/>
     </row>
@@ -1739,31 +1785,31 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="16">
-        <v>8421691423220</v>
+        <v>67</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>88</v>
+      <c r="M19" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="N19" s="4"/>
     </row>
@@ -1781,31 +1827,31 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="16">
-        <v>8421691423220</v>
+        <v>75</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>92</v>
+      <c r="M20" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="N20" s="4"/>
     </row>
@@ -1817,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -1826,28 +1872,28 @@
         <v>23</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="16">
-        <v>8421691423220</v>
+        <v>77</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>95</v>
+      <c r="M21" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="N21" s="4"/>
     </row>
@@ -1859,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -1868,28 +1914,28 @@
         <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="16">
-        <v>8421691423220</v>
+        <v>79</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>111</v>
+      <c r="M22" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="N22" s="4"/>
     </row>
@@ -1901,31 +1947,33 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="16">
-        <v>8421691423220</v>
+        <v>113</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="6" t="s">
@@ -1937,7 +1985,7 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1947,14 +1995,16 @@
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="16">
-        <v>8421691423220</v>
+        <v>18</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>19</v>
@@ -1963,13 +2013,13 @@
         <v>20</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N24" s="4"/>
     </row>
@@ -1980,21 +2030,23 @@
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>15</v>
+      <c r="C25" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="16">
-        <v>8421691423220</v>
+      <c r="E25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>19</v>
@@ -2003,13 +2055,13 @@
         <v>20</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N25" s="4"/>
     </row>
@@ -2021,20 +2073,22 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="16">
-        <v>8421691423220</v>
+        <v>84</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>19</v>
@@ -2043,13 +2097,13 @@
         <v>20</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="N26" s="4"/>
     </row>
@@ -2061,20 +2115,22 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="16">
-        <v>8421691423220</v>
+        <v>118</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>19</v>
@@ -2083,13 +2139,13 @@
         <v>20</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="N27" s="4"/>
     </row>
@@ -2101,20 +2157,22 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="G28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="16">
-        <v>8421691423220</v>
+        <v>86</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>19</v>
@@ -2123,104 +2181,224 @@
         <v>20</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N28" s="11"/>
+        <v>147</v>
+      </c>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="6"/>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
@@ -2230,29 +2408,21 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="6"/>
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2262,20 +2432,12 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2285,7 +2447,6 @@
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2301,7 +2462,6 @@
       <c r="N37" s="4"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2428,8 +2588,38 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
@@ -3385,6 +3575,8 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3402,68 +3594,68 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="62.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" customWidth="1"/>
-    <col min="9" max="10" width="33.6640625" customWidth="1"/>
-    <col min="11" max="28" width="10.5546875" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="62.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="9" max="10" width="33.7109375" customWidth="1"/>
+    <col min="11" max="28" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="4">
@@ -3473,25 +3665,25 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -4967,15 +5159,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="7" width="33.6640625" customWidth="1"/>
-    <col min="8" max="25" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="25" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -4983,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -4992,10 +5184,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -5006,11 +5198,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>

--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/G89.2023.T20.EG3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFDF80A-EA87-B04D-B311-742378C84168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3494A78C-A4EC-474A-8AC2-4F2776393809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="149">
   <si>
     <t>#</t>
   </si>
@@ -304,9 +304,6 @@
     <t>"La casa de paco"</t>
   </si>
   <si>
-    <t>Exception: Order Type value is not a string</t>
-  </si>
-  <si>
     <t>"654314159"</t>
   </si>
   <si>
@@ -476,6 +473,12 @@
   </si>
   <si>
     <t>Exception: Zip_Code has too few digits</t>
+  </si>
+  <si>
+    <t>Exception: Order type not valid, must be REGULAR or PREMIUM</t>
+  </si>
+  <si>
+    <t>Exception: Type of the order_type is not valid, must be a STRING</t>
   </si>
 </sst>
 </file>
@@ -988,7 +991,7 @@
       <pane xSplit="7" ySplit="19" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1005,7 +1008,7 @@
     <col min="10" max="10" width="47.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="30" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1092,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
@@ -1101,13 +1104,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -1134,7 +1137,7 @@
         <v>46</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>25</v>
@@ -1143,13 +1146,13 @@
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -1176,7 +1179,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>19</v>
@@ -1185,13 +1188,13 @@
         <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -1203,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -1212,13 +1215,13 @@
         <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>19</v>
@@ -1227,13 +1230,13 @@
         <v>20</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N5" s="4"/>
     </row>
@@ -1245,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -1254,13 +1257,13 @@
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>19</v>
@@ -1269,13 +1272,13 @@
         <v>20</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6" s="4"/>
     </row>
@@ -1299,10 +1302,10 @@
         <v>66</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>19</v>
@@ -1311,7 +1314,7 @@
         <v>20</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>21</v>
@@ -1338,13 +1341,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>25</v>
@@ -1353,7 +1356,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>21</v>
@@ -1383,25 +1386,25 @@
         <v>64</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="N9" s="4"/>
     </row>
@@ -1428,7 +1431,7 @@
         <v>47</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I10" s="6">
         <v>123</v>
@@ -1437,13 +1440,13 @@
         <v>20</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -1464,13 +1467,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>19</v>
@@ -1491,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>48</v>
@@ -1500,19 +1503,19 @@
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="11"/>
@@ -1527,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>48</v>
@@ -1539,10 +1542,10 @@
         <v>49</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>19</v>
@@ -1551,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>21</v>
@@ -1569,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>48</v>
@@ -1584,7 +1587,7 @@
         <v>51</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
@@ -1593,7 +1596,7 @@
         <v>52</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>21</v>
@@ -1626,7 +1629,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>19</v>
@@ -1635,7 +1638,7 @@
         <v>12345678</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>21</v>
@@ -1653,7 +1656,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>48</v>
@@ -1668,7 +1671,7 @@
         <v>58</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>19</v>
@@ -1677,7 +1680,7 @@
         <v>59</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>21</v>
@@ -1695,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>48</v>
@@ -1710,16 +1713,16 @@
         <v>62</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>21</v>
@@ -1752,7 +1755,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>45</v>
@@ -1761,7 +1764,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>21</v>
@@ -1794,7 +1797,7 @@
         <v>67</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>45</v>
@@ -1836,7 +1839,7 @@
         <v>75</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>45</v>
@@ -1863,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -1872,13 +1875,13 @@
         <v>23</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>45</v>
@@ -1887,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>21</v>
@@ -1905,7 +1908,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -1914,13 +1917,13 @@
         <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>45</v>
@@ -1929,7 +1932,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>21</v>
@@ -1947,7 +1950,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -1956,13 +1959,13 @@
         <v>23</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>45</v>
@@ -1971,7 +1974,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>21</v>
@@ -1998,13 +2001,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>19</v>
@@ -2013,7 +2016,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>21</v>
@@ -2031,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
@@ -2040,13 +2043,13 @@
         <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>19</v>
@@ -2055,10 +2058,10 @@
         <v>20</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>83</v>
@@ -2073,7 +2076,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
@@ -2082,13 +2085,13 @@
         <v>81</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>19</v>
@@ -2097,10 +2100,10 @@
         <v>20</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>85</v>
@@ -2115,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
@@ -2124,13 +2127,13 @@
         <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>19</v>
@@ -2139,13 +2142,13 @@
         <v>20</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N27" s="4"/>
     </row>
@@ -2157,7 +2160,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
@@ -2166,13 +2169,13 @@
         <v>81</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>19</v>
@@ -2181,13 +2184,13 @@
         <v>20</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N28" s="4"/>
     </row>
@@ -2208,13 +2211,13 @@
         <v>81</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>87</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>19</v>
@@ -2223,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>89</v>
@@ -2244,19 +2247,19 @@
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>19</v>
@@ -2265,13 +2268,13 @@
         <v>20</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N30" s="9"/>
     </row>
@@ -2286,19 +2289,19 @@
         <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>19</v>
@@ -2307,13 +2310,13 @@
         <v>20</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N31" s="4"/>
     </row>
@@ -2328,19 +2331,19 @@
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>19</v>
@@ -2349,13 +2352,13 @@
         <v>20</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N32" s="4"/>
     </row>
@@ -2370,19 +2373,19 @@
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>19</v>
@@ -2391,13 +2394,13 @@
         <v>20</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N33" s="4"/>
     </row>

--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/G89.2023.T20.EG3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3494A78C-A4EC-474A-8AC2-4F2776393809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30193AE-89D6-D149-AADB-CF3A82E52EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="150">
   <si>
     <t>#</t>
   </si>
@@ -193,18 +193,12 @@
     <t>"C/LISBOA4MADRIDSPAIN"</t>
   </si>
   <si>
-    <t>Exception: Addres must contain a space</t>
-  </si>
-  <si>
     <t>CE_NV_14</t>
   </si>
   <si>
     <t>ADDRES_TYPE WRONG</t>
   </si>
   <si>
-    <t>Exception: Address type must by str</t>
-  </si>
-  <si>
     <t>CE_NV_15</t>
   </si>
   <si>
@@ -214,18 +208,12 @@
     <t>"MICASA, MADRID"</t>
   </si>
   <si>
-    <t>Exception: Address too short</t>
-  </si>
-  <si>
     <t>CE_NV_16</t>
   </si>
   <si>
     <t>ADDRES_LENGTH BIG</t>
   </si>
   <si>
-    <t>Exception: Address too long</t>
-  </si>
-  <si>
     <t>CE_NV_8</t>
   </si>
   <si>
@@ -479,6 +467,21 @@
   </si>
   <si>
     <t>Exception: Type of the order_type is not valid, must be a STRING</t>
+  </si>
+  <si>
+    <t>Exception: Address not valid, must have more than 20 characters</t>
+  </si>
+  <si>
+    <t>Exception: Address not valid, must be a string</t>
+  </si>
+  <si>
+    <t>Exception: Address not valid, must have a space</t>
+  </si>
+  <si>
+    <t>Exception: Address not valid, must have less than 100 characters</t>
+  </si>
+  <si>
+    <t>VALID PHONE NUMBER</t>
   </si>
 </sst>
 </file>
@@ -987,11 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="19" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="163" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1095,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
@@ -1104,13 +1104,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -1137,7 +1137,7 @@
         <v>46</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>25</v>
@@ -1146,13 +1146,13 @@
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -1179,7 +1179,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>19</v>
@@ -1188,13 +1188,13 @@
         <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -1206,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -1215,13 +1215,13 @@
         <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>19</v>
@@ -1230,13 +1230,13 @@
         <v>20</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N5" s="4"/>
     </row>
@@ -1248,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -1257,13 +1257,13 @@
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>19</v>
@@ -1272,13 +1272,13 @@
         <v>20</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N6" s="4"/>
     </row>
@@ -1299,13 +1299,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>19</v>
@@ -1314,7 +1314,7 @@
         <v>20</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>21</v>
@@ -1341,13 +1341,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>25</v>
@@ -1356,7 +1356,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>21</v>
@@ -1383,28 +1383,28 @@
         <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N9" s="4"/>
     </row>
@@ -1425,13 +1425,13 @@
         <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I10" s="6">
         <v>123</v>
@@ -1440,13 +1440,13 @@
         <v>20</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -1467,13 +1467,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>19</v>
@@ -1494,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>48</v>
@@ -1503,19 +1503,19 @@
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="11"/>
@@ -1530,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>48</v>
@@ -1542,10 +1542,10 @@
         <v>49</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>19</v>
@@ -1554,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>21</v>
@@ -1572,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>48</v>
@@ -1587,7 +1587,7 @@
         <v>51</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
@@ -1596,13 +1596,13 @@
         <v>52</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -1623,13 +1623,13 @@
         <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>19</v>
@@ -1638,13 +1638,13 @@
         <v>12345678</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -1656,7 +1656,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>48</v>
@@ -1665,32 +1665,32 @@
         <v>23</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+    <row r="17" spans="1:14" ht="51" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>48</v>
@@ -1707,28 +1707,28 @@
         <v>23</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="N17" s="4"/>
     </row>
@@ -1749,13 +1749,13 @@
         <v>23</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>45</v>
@@ -1764,7 +1764,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>21</v>
@@ -1791,13 +1791,13 @@
         <v>23</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>45</v>
@@ -1806,13 +1806,13 @@
         <v>20</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N19" s="4"/>
     </row>
@@ -1830,16 +1830,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>45</v>
@@ -1848,13 +1848,13 @@
         <v>20</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N20" s="4"/>
     </row>
@@ -1866,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -1875,13 +1875,13 @@
         <v>23</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>45</v>
@@ -1890,13 +1890,13 @@
         <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N21" s="4"/>
     </row>
@@ -1908,7 +1908,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -1917,13 +1917,13 @@
         <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>45</v>
@@ -1932,13 +1932,13 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N22" s="4"/>
     </row>
@@ -1950,7 +1950,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -1959,13 +1959,13 @@
         <v>23</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>45</v>
@@ -1974,7 +1974,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>21</v>
@@ -2001,13 +2001,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>19</v>
@@ -2016,7 +2016,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>21</v>
@@ -2034,22 +2034,22 @@
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>19</v>
@@ -2058,13 +2058,13 @@
         <v>20</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N25" s="4"/>
     </row>
@@ -2076,22 +2076,22 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>19</v>
@@ -2100,13 +2100,13 @@
         <v>20</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N26" s="4"/>
     </row>
@@ -2118,22 +2118,22 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>19</v>
@@ -2142,13 +2142,13 @@
         <v>20</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N27" s="4"/>
     </row>
@@ -2160,22 +2160,22 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>19</v>
@@ -2184,13 +2184,13 @@
         <v>20</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N28" s="4"/>
     </row>
@@ -2208,16 +2208,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>19</v>
@@ -2226,13 +2226,13 @@
         <v>20</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N29" s="4"/>
     </row>
@@ -2247,19 +2247,19 @@
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>19</v>
@@ -2268,13 +2268,13 @@
         <v>20</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N30" s="9"/>
     </row>
@@ -2289,19 +2289,19 @@
         <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>19</v>
@@ -2310,13 +2310,13 @@
         <v>20</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N31" s="4"/>
     </row>
@@ -2331,19 +2331,19 @@
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>19</v>
@@ -2352,13 +2352,13 @@
         <v>20</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N32" s="4"/>
     </row>
@@ -2373,19 +2373,19 @@
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>19</v>
@@ -2394,13 +2394,13 @@
         <v>20</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N33" s="4"/>
     </row>

--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/G89.2023.T20.EG3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30193AE-89D6-D149-AADB-CF3A82E52EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB0281D-1131-9843-8BE2-3A04F3E6C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="149">
   <si>
     <t>#</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Path considering that the input is not found in the file</t>
   </si>
   <si>
-    <t>"regular"</t>
-  </si>
-  <si>
     <t>PRODUCT ID NOT (EA13)NUMBER</t>
   </si>
   <si>
@@ -232,12 +229,6 @@
     <t>"DEATH_STAR"</t>
   </si>
   <si>
-    <t>Exception: Phone_number is not a number</t>
-  </si>
-  <si>
-    <t>"123456789"</t>
-  </si>
-  <si>
     <t>CE_NV_18</t>
   </si>
   <si>
@@ -256,39 +247,24 @@
     <t>PHONE_NUMBER TOO SHORT</t>
   </si>
   <si>
-    <t>Exception: Phone_number too short</t>
-  </si>
-  <si>
     <t>PHONE_NUMBER TOO LONG</t>
   </si>
   <si>
-    <t>Exception: Phone_number too long</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOT VALID </t>
   </si>
   <si>
     <t>ZIP_CODE BELLOW 01000</t>
   </si>
   <si>
-    <t>Exception: Zip_Code bellow smallest valid (01000)</t>
-  </si>
-  <si>
     <t>ZIP_CODE ABOVE 52999</t>
   </si>
   <si>
-    <t>Exception: Zip_Code above biggest valid (52999)</t>
-  </si>
-  <si>
     <t>ZIP_CODE TOO FEW DIGITS</t>
   </si>
   <si>
     <t>ZIP_CODE NON INTEGER VALUE</t>
   </si>
   <si>
-    <t>Exception: Zip_Code must be an integer {01000-52999}</t>
-  </si>
-  <si>
     <t>"La casa de paco"</t>
   </si>
   <si>
@@ -457,12 +433,6 @@
     <t>CE_V_7</t>
   </si>
   <si>
-    <t>Exception: Zip_Code has too many digits</t>
-  </si>
-  <si>
-    <t>Exception: Zip_Code has too few digits</t>
-  </si>
-  <si>
     <t>Exception: Order type not valid, must be REGULAR or PREMIUM</t>
   </si>
   <si>
@@ -482,6 +452,33 @@
   </si>
   <si>
     <t>VALID PHONE NUMBER</t>
+  </si>
+  <si>
+    <t>Exception: Phone number not valid, must be numeric</t>
+  </si>
+  <si>
+    <t>"+34654314159"</t>
+  </si>
+  <si>
+    <t>Exception: Phone number not valid, must have more than 8 characters</t>
+  </si>
+  <si>
+    <t>Exception: Phone number not valid, must have less than 10 characters</t>
+  </si>
+  <si>
+    <t>Exception: Zip code not valid, must be less than 53000</t>
+  </si>
+  <si>
+    <t>Exception: Zip code not valid, must be greater or equal than 01000</t>
+  </si>
+  <si>
+    <t>Exception: Zip code not valid, must have more than 4 digits</t>
+  </si>
+  <si>
+    <t>Exception: Zip code not valid, must have less than 6 digits</t>
+  </si>
+  <si>
+    <t>Exception: Zip code not valid, must be numeric in the range {01000-52999}</t>
   </si>
 </sst>
 </file>
@@ -990,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="163" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="J9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1008,7 +1005,7 @@
     <col min="10" max="10" width="47.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="30" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1095,7 +1092,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
@@ -1104,13 +1101,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -1134,10 +1131,10 @@
         <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>25</v>
@@ -1146,13 +1143,13 @@
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -1179,7 +1176,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>19</v>
@@ -1188,13 +1185,13 @@
         <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -1206,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -1215,13 +1212,13 @@
         <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>19</v>
@@ -1230,13 +1227,13 @@
         <v>20</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N5" s="4"/>
     </row>
@@ -1248,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -1257,13 +1254,13 @@
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>19</v>
@@ -1272,13 +1269,13 @@
         <v>20</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="N6" s="4"/>
     </row>
@@ -1299,13 +1296,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>19</v>
@@ -1314,7 +1311,7 @@
         <v>20</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>21</v>
@@ -1341,13 +1338,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>25</v>
@@ -1356,7 +1353,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>21</v>
@@ -1383,28 +1380,28 @@
         <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N9" s="4"/>
     </row>
@@ -1425,13 +1422,13 @@
         <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I10" s="6">
         <v>123</v>
@@ -1440,13 +1437,13 @@
         <v>20</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -1461,19 +1458,19 @@
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>19</v>
@@ -1494,28 +1491,28 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="11"/>
@@ -1530,22 +1527,22 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>19</v>
@@ -1554,7 +1551,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>21</v>
@@ -1572,37 +1569,37 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="H14" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -1617,19 +1614,19 @@
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>19</v>
@@ -1638,13 +1635,13 @@
         <v>12345678</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -1656,37 +1653,37 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -1698,37 +1695,37 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="H17" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="N17" s="4"/>
     </row>
@@ -1749,22 +1746,22 @@
         <v>23</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>21</v>
@@ -1791,28 +1788,28 @@
         <v>23</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="N19" s="4"/>
     </row>
@@ -1830,31 +1827,31 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N20" s="4"/>
     </row>
@@ -1866,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -1875,28 +1872,28 @@
         <v>23</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="N21" s="4"/>
     </row>
@@ -1908,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -1917,28 +1914,28 @@
         <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="N22" s="4"/>
     </row>
@@ -1950,7 +1947,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -1959,22 +1956,22 @@
         <v>23</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="I23" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>21</v>
@@ -2001,13 +1998,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>19</v>
@@ -2016,7 +2013,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>21</v>
@@ -2034,22 +2031,22 @@
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>19</v>
@@ -2058,13 +2055,13 @@
         <v>20</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="N25" s="4"/>
     </row>
@@ -2076,22 +2073,22 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>19</v>
@@ -2100,13 +2097,13 @@
         <v>20</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="N26" s="4"/>
     </row>
@@ -2118,22 +2115,22 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>19</v>
@@ -2142,13 +2139,13 @@
         <v>20</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N27" s="4"/>
     </row>
@@ -2160,22 +2157,22 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>19</v>
@@ -2184,13 +2181,13 @@
         <v>20</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N28" s="4"/>
     </row>
@@ -2208,16 +2205,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>19</v>
@@ -2226,13 +2223,13 @@
         <v>20</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="N29" s="4"/>
     </row>
@@ -2247,19 +2244,19 @@
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>19</v>
@@ -2268,13 +2265,13 @@
         <v>20</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N30" s="9"/>
     </row>
@@ -2289,19 +2286,19 @@
         <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>19</v>
@@ -2310,13 +2307,13 @@
         <v>20</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N31" s="4"/>
     </row>
@@ -2331,19 +2328,19 @@
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>19</v>
@@ -2352,13 +2349,13 @@
         <v>20</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N32" s="4"/>
     </row>
@@ -2373,19 +2370,19 @@
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>19</v>
@@ -2394,13 +2391,13 @@
         <v>20</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N33" s="4"/>
     </row>

--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/G89.2023.T20.EG3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB0281D-1131-9843-8BE2-3A04F3E6C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BA7B79-FB64-4D40-BB26-D00FD0731C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="148">
   <si>
     <t>#</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>"28005"</t>
-  </si>
-  <si>
-    <t>ecc7f631f98930aca6e183c6e505dc45</t>
   </si>
   <si>
     <t>NOT VALID</t>
@@ -987,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1092,7 +1089,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
@@ -1101,13 +1098,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -1125,31 +1122,31 @@
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -1167,16 +1164,16 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>19</v>
@@ -1185,13 +1182,13 @@
         <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -1203,22 +1200,22 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>19</v>
@@ -1227,13 +1224,13 @@
         <v>20</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N5" s="4"/>
     </row>
@@ -1245,22 +1242,22 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>19</v>
@@ -1269,13 +1266,13 @@
         <v>20</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N6" s="4"/>
     </row>
@@ -1296,13 +1293,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>19</v>
@@ -1311,13 +1308,13 @@
         <v>20</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="N7" s="4"/>
     </row>
@@ -1338,28 +1335,28 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="N8" s="4"/>
     </row>
@@ -1377,31 +1374,31 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N9" s="4"/>
     </row>
@@ -1419,16 +1416,16 @@
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="6">
         <v>123</v>
@@ -1437,13 +1434,13 @@
         <v>20</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -1458,19 +1455,19 @@
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>19</v>
@@ -1478,9 +1475,15 @@
       <c r="J11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
@@ -1491,32 +1494,38 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
@@ -1527,22 +1536,22 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>19</v>
@@ -1551,13 +1560,13 @@
         <v>20</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="N13" s="4"/>
     </row>
@@ -1569,37 +1578,37 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="H14" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -1614,19 +1623,19 @@
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>19</v>
@@ -1635,13 +1644,13 @@
         <v>12345678</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -1653,37 +1662,37 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -1695,37 +1704,37 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H17" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N17" s="4"/>
     </row>
@@ -1743,16 +1752,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>19</v>
@@ -1761,13 +1770,13 @@
         <v>20</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>22</v>
+      <c r="M18" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="N18" s="4"/>
     </row>
@@ -1785,16 +1794,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>19</v>
@@ -1803,13 +1812,13 @@
         <v>20</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N19" s="4"/>
     </row>
@@ -1827,16 +1836,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="H20" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>19</v>
@@ -1845,13 +1854,13 @@
         <v>20</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N20" s="4"/>
     </row>
@@ -1863,22 +1872,22 @@
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>19</v>
@@ -1887,13 +1896,13 @@
         <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N21" s="4"/>
     </row>
@@ -1905,22 +1914,22 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>19</v>
@@ -1929,13 +1938,13 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N22" s="4"/>
     </row>
@@ -1947,22 +1956,22 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>19</v>
@@ -1971,13 +1980,13 @@
         <v>20</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="N23" s="4"/>
     </row>
@@ -1998,13 +2007,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>19</v>
@@ -2013,13 +2022,13 @@
         <v>20</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="N24" s="4"/>
     </row>
@@ -2031,22 +2040,22 @@
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H25" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>19</v>
@@ -2055,13 +2064,13 @@
         <v>20</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N25" s="4"/>
     </row>
@@ -2073,22 +2082,22 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>19</v>
@@ -2097,13 +2106,13 @@
         <v>20</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N26" s="4"/>
     </row>
@@ -2115,22 +2124,22 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>19</v>
@@ -2139,13 +2148,13 @@
         <v>20</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N27" s="4"/>
     </row>
@@ -2157,22 +2166,22 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>19</v>
@@ -2181,13 +2190,13 @@
         <v>20</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N28" s="4"/>
     </row>
@@ -2205,16 +2214,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>19</v>
@@ -2223,13 +2232,13 @@
         <v>20</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N29" s="4"/>
     </row>
@@ -2238,25 +2247,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>19</v>
@@ -2265,13 +2274,13 @@
         <v>20</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N30" s="9"/>
     </row>
@@ -2280,25 +2289,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>19</v>
@@ -2307,13 +2316,13 @@
         <v>20</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N31" s="4"/>
     </row>
@@ -2322,25 +2331,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>19</v>
@@ -2349,13 +2358,13 @@
         <v>20</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N32" s="4"/>
     </row>
@@ -2364,25 +2373,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>19</v>
@@ -2391,13 +2400,13 @@
         <v>20</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N33" s="4"/>
     </row>
@@ -3612,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
@@ -3627,13 +3636,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>13</v>
@@ -3665,25 +3674,25 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -5175,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -5184,10 +5193,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -5198,11 +5207,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>

--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/G89.2023.T20.EG3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BA7B79-FB64-4D40-BB26-D00FD0731C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2523F5-9EC0-1D4B-B369-5BCAA22CE6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="148">
   <si>
     <t>#</t>
   </si>
@@ -319,9 +319,6 @@
     <t>"C/LISBOA MARINERA,4, MADRID, SPAIN"</t>
   </si>
   <si>
-    <t>CALLE DE NUESTRO SEÑOR SATORU GOJO EL BENEVOLENTE QUE CON SUS ARTES MARCIALES NATURAL, MADRID, ESPAÑA</t>
-  </si>
-  <si>
     <t>LV</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>Exception: Zip code not valid, must be numeric in the range {01000-52999}</t>
+  </si>
+  <si>
+    <t>"Calle de la Gran Via de Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madri"</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N51">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="I/O"/>
@@ -982,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1004"/>
+  <dimension ref="A1:AD1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1089,7 +1089,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
@@ -1131,7 +1131,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>24</v>
@@ -1173,7 +1173,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>19</v>
@@ -1200,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -1215,7 +1215,7 @@
         <v>78</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>19</v>
@@ -1242,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -1257,7 +1257,7 @@
         <v>79</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>19</v>
@@ -1299,7 +1299,7 @@
         <v>89</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>19</v>
@@ -1335,13 +1335,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>24</v>
@@ -1383,7 +1383,7 @@
         <v>91</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>90</v>
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N9" s="4"/>
     </row>
@@ -1425,7 +1425,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10" s="6">
         <v>123</v>
@@ -1440,7 +1440,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -1464,10 +1464,10 @@
         <v>88</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>19</v>
@@ -1494,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>46</v>
@@ -1503,13 +1503,13 @@
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>19</v>
@@ -1536,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>46</v>
@@ -1551,7 +1551,7 @@
         <v>93</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>19</v>
@@ -1578,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>46</v>
@@ -1593,7 +1593,7 @@
         <v>49</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
@@ -1608,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -1635,7 +1635,7 @@
         <v>52</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>19</v>
@@ -1650,7 +1650,7 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -1662,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>46</v>
@@ -1677,7 +1677,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>19</v>
@@ -1692,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -1704,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>46</v>
@@ -1719,13 +1719,13 @@
         <v>57</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>77</v>
@@ -1734,7 +1734,7 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N17" s="4"/>
     </row>
@@ -1758,10 +1758,10 @@
         <v>62</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>19</v>
@@ -1803,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>19</v>
@@ -1818,7 +1818,7 @@
         <v>21</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N19" s="4"/>
     </row>
@@ -1845,7 +1845,7 @@
         <v>67</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>19</v>
@@ -1854,7 +1854,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>21</v>
@@ -1881,13 +1881,13 @@
         <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>19</v>
@@ -1896,13 +1896,13 @@
         <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N21" s="4"/>
     </row>
@@ -1923,13 +1923,13 @@
         <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>19</v>
@@ -1938,13 +1938,13 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N22" s="4"/>
     </row>
@@ -1965,13 +1965,13 @@
         <v>22</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>19</v>
@@ -2007,13 +2007,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>19</v>
@@ -2040,7 +2040,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
@@ -2049,13 +2049,13 @@
         <v>71</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>19</v>
@@ -2067,10 +2067,10 @@
         <v>77</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N25" s="4"/>
     </row>
@@ -2082,7 +2082,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
@@ -2091,13 +2091,13 @@
         <v>71</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>19</v>
@@ -2109,10 +2109,10 @@
         <v>77</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N26" s="4"/>
     </row>
@@ -2124,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
@@ -2133,13 +2133,13 @@
         <v>71</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>19</v>
@@ -2151,10 +2151,10 @@
         <v>77</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N27" s="4"/>
     </row>
@@ -2166,7 +2166,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
@@ -2175,13 +2175,13 @@
         <v>71</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>19</v>
@@ -2193,10 +2193,10 @@
         <v>77</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N28" s="4"/>
     </row>
@@ -2217,13 +2217,13 @@
         <v>71</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>19</v>
@@ -2238,7 +2238,7 @@
         <v>76</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N29" s="4"/>
     </row>
@@ -2247,227 +2247,231 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N30" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="F37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="M37" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="N37" s="4"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
@@ -2477,16 +2481,15 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2502,7 +2505,6 @@
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2518,7 +2520,6 @@
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2534,7 +2535,6 @@
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2629,23 +2629,83 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -3586,6 +3646,10 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edu/PycharmProjects/G89.2023.T20.EG3/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive\Escritorio\Desarrollo de Software\G89.2023.T20.EG3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2523F5-9EC0-1D4B-B369-5BCAA22CE6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C1E785-5C35-4968-9CDA-1174585EE0F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="503" windowWidth="27720" windowHeight="17498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GE3 2023 F1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="159">
   <si>
     <t>#</t>
   </si>
@@ -319,6 +319,9 @@
     <t>"C/LISBOA MARINERA,4, MADRID, SPAIN"</t>
   </si>
   <si>
+    <t>CALLE DE NUESTRO SEÑOR SATORU GOJO EL BENEVOLENTE QUE CON SUS ARTES MARCIALES NATURAL, MADRID, ESPAÑA</t>
+  </si>
+  <si>
     <t>LV</t>
   </si>
   <si>
@@ -475,7 +478,37 @@
     <t>Exception: Zip code not valid, must be numeric in the range {01000-52999}</t>
   </si>
   <si>
-    <t>"Calle de la Gran Via de Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madri"</t>
+    <t>ZIP_CODE Exactly 01000</t>
+  </si>
+  <si>
+    <t>ZIP_CODE Exactly 52999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALID </t>
+  </si>
+  <si>
+    <t>"01000"</t>
+  </si>
+  <si>
+    <t>"52999"</t>
+  </si>
+  <si>
+    <t>ZIP_CODE One above 01000</t>
+  </si>
+  <si>
+    <t>ZIP_CODE One below 52999</t>
+  </si>
+  <si>
+    <t>Exception: Zip code not valid, must be less than 53001</t>
+  </si>
+  <si>
+    <t>Exception: Zip code not valid, must be less than 53002</t>
+  </si>
+  <si>
+    <t>"01001"</t>
+  </si>
+  <si>
+    <t>"52998"</t>
   </si>
 </sst>
 </file>
@@ -550,7 +583,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +620,30 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -600,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,6 +680,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,7 +791,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:N47">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="I/O"/>
@@ -982,28 +1043,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1008"/>
+  <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.71875" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="47.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="30" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="47.71875" customWidth="1"/>
+    <col min="11" max="11" width="17.71875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.71875" bestFit="1" customWidth="1"/>
+    <col min="14" max="30" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
@@ -1079,7 +1140,7 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1089,7 +1150,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
@@ -1121,7 +1182,7 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1131,7 +1192,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>24</v>
@@ -1163,7 +1224,7 @@
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1173,7 +1234,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>19</v>
@@ -1200,12 +1261,12 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1215,7 +1276,7 @@
         <v>78</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>19</v>
@@ -1242,12 +1303,12 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1257,7 +1318,7 @@
         <v>79</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>19</v>
@@ -1289,7 +1350,7 @@
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1299,7 +1360,7 @@
         <v>89</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>19</v>
@@ -1331,17 +1392,17 @@
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>24</v>
@@ -1373,7 +1434,7 @@
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1383,7 +1444,7 @@
         <v>91</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>90</v>
@@ -1398,7 +1459,7 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="4"/>
     </row>
@@ -1415,7 +1476,7 @@
       <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1425,7 +1486,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I10" s="6">
         <v>123</v>
@@ -1440,7 +1501,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -1457,17 +1518,17 @@
       <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>19</v>
@@ -1494,22 +1555,22 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>19</v>
@@ -1536,12 +1597,12 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1551,7 +1612,7 @@
         <v>93</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>19</v>
@@ -1578,12 +1639,12 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1593,7 +1654,7 @@
         <v>49</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
@@ -1608,7 +1669,7 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -1625,7 +1686,7 @@
       <c r="D15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1635,7 +1696,7 @@
         <v>52</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>19</v>
@@ -1650,7 +1711,7 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -1662,12 +1723,12 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1677,7 +1738,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>19</v>
@@ -1692,7 +1753,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -1704,12 +1765,12 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1719,13 +1780,13 @@
         <v>57</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>77</v>
@@ -1734,7 +1795,7 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N17" s="4"/>
     </row>
@@ -1751,17 +1812,17 @@
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>19</v>
@@ -1793,7 +1854,7 @@
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1803,7 +1864,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>19</v>
@@ -1818,7 +1879,7 @@
         <v>21</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N19" s="4"/>
     </row>
@@ -1835,7 +1896,7 @@
       <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="17" t="s">
         <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1845,7 +1906,7 @@
         <v>67</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>19</v>
@@ -1854,7 +1915,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>21</v>
@@ -1877,17 +1938,17 @@
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>19</v>
@@ -1896,13 +1957,13 @@
         <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N21" s="4"/>
     </row>
@@ -1919,17 +1980,17 @@
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>19</v>
@@ -1938,13 +1999,13 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N22" s="4"/>
     </row>
@@ -1961,17 +2022,17 @@
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>19</v>
@@ -2003,17 +2064,17 @@
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>19</v>
@@ -2040,22 +2101,22 @@
         <v>14</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>19</v>
@@ -2067,10 +2128,10 @@
         <v>77</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N25" s="4"/>
     </row>
@@ -2082,22 +2143,22 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>19</v>
@@ -2109,10 +2170,10 @@
         <v>77</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N26" s="4"/>
     </row>
@@ -2124,22 +2185,22 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>19</v>
@@ -2151,10 +2212,10 @@
         <v>77</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N27" s="4"/>
     </row>
@@ -2166,22 +2227,22 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>19</v>
@@ -2193,10 +2254,10 @@
         <v>77</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N28" s="4"/>
     </row>
@@ -2213,17 +2274,17 @@
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>19</v>
@@ -2238,7 +2299,7 @@
         <v>76</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N29" s="4"/>
     </row>
@@ -2247,294 +2308,413 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="6"/>
+      <c r="B31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="6"/>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="F40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="L40" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="6" t="s">
+      <c r="F41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K41" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="L41" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2550,7 +2730,9 @@
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2566,7 +2748,9 @@
       <c r="N43" s="4"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2629,83 +2813,23 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -3646,10 +3770,6 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3667,17 +3787,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="62.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
-    <col min="9" max="10" width="33.7109375" customWidth="1"/>
-    <col min="11" max="28" width="10.5703125" customWidth="1"/>
+    <col min="1" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.27734375" customWidth="1"/>
+    <col min="6" max="6" width="62.27734375" customWidth="1"/>
+    <col min="7" max="7" width="9.27734375" customWidth="1"/>
+    <col min="8" max="8" width="36.71875" customWidth="1"/>
+    <col min="9" max="10" width="33.71875" customWidth="1"/>
+    <col min="11" max="28" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33" customHeight="1">
@@ -5232,15 +5352,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="25" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.27734375" customWidth="1"/>
+    <col min="4" max="4" width="62.27734375" customWidth="1"/>
+    <col min="5" max="5" width="9.27734375" customWidth="1"/>
+    <col min="6" max="7" width="33.71875" customWidth="1"/>
+    <col min="8" max="25" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">

--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -4,16 +4,32 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Copia de Hoja 1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="test Edu" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Funcion2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Funcion 3" sheetId="3" r:id="rId6"/>
+    <sheet state="hidden" name="Copia de Hoja 1" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A8">
+      <text>
+        <t xml:space="preserve">Light Blue rows are also for Loop testcases</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="580">
   <si>
     <t>#</t>
   </si>
@@ -513,6 +529,1115 @@
     <t>Exception: Not a JSON</t>
   </si>
   <si>
+    <t>NODE</t>
+  </si>
+  <si>
+    <t>TERMINAL (T) / NO TERMINAL (NT)</t>
+  </si>
+  <si>
+    <t>TYPE (DUPLICATION / DELETION / MODIFICATION / VALID)</t>
+  </si>
+  <si>
+    <t>FILE PATH</t>
+  </si>
+  <si>
+    <t>FILE CONTENT</t>
+  </si>
+  <si>
+    <t>EXPECTED RESULT</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Node1_01_V</t>
+  </si>
+  <si>
+    <t>Valid Json</t>
+  </si>
+  <si>
+    <t>test_01_valid.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>56df104b603f5fac5190b2225a5548cdf5fff4d62c5f277c28295b1e11aa0bfe</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Node2_02_NV</t>
+  </si>
+  <si>
+    <t>Node 2 deleted</t>
+  </si>
+  <si>
+    <t>test_02_deleted.json</t>
+  </si>
+  <si>
+    <t>"OrderID": "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>JSON has not the expected stucture</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Node2_03_NV</t>
+  </si>
+  <si>
+    <t>Node 2 duplicated</t>
+  </si>
+  <si>
+    <t>test_02_duplicated.json</t>
+  </si>
+  <si>
+    <t>{{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node3_04_NV</t>
+  </si>
+  <si>
+    <t>Node 3 deleted</t>
+  </si>
+  <si>
+    <t>test_03_deleted.json</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Data in JSON has no valid values</t>
+  </si>
+  <si>
+    <t>Node3_05_NV</t>
+  </si>
+  <si>
+    <t>Node 3 duplicated</t>
+  </si>
+  <si>
+    <t>test_03_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es","OrderID": "e01521684a7f9535e9fa098a2b86565f", "NotificationMail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node4_06_NV</t>
+  </si>
+  <si>
+    <t>Node 4 deleted</t>
+  </si>
+  <si>
+    <t>test_04_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es",</t>
+  </si>
+  <si>
+    <t>Node4_07_NV</t>
+  </si>
+  <si>
+    <t>Node 4 duplicated</t>
+  </si>
+  <si>
+    <t>test_04_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}}</t>
+  </si>
+  <si>
+    <t>Node5_08_NV</t>
+  </si>
+  <si>
+    <t>Node 5 modified</t>
+  </si>
+  <si>
+    <t>test_05_modified.json</t>
+  </si>
+  <si>
+    <t>Â¿"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node6_09_NV</t>
+  </si>
+  <si>
+    <t>Node 6 deleted</t>
+  </si>
+  <si>
+    <t>test_06_deleted.json</t>
+  </si>
+  <si>
+    <t>{, "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node6_10_NV</t>
+  </si>
+  <si>
+    <t>Node 6 duplicated</t>
+  </si>
+  <si>
+    <t>test_06_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": 'e01521684a7f9535e9fa098a2b86565f""OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node7_11_NV</t>
+  </si>
+  <si>
+    <t>Node 7 modified</t>
+  </si>
+  <si>
+    <t>test_07_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f"= "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node8_12_NV</t>
+  </si>
+  <si>
+    <t>Node 8 deleted</t>
+  </si>
+  <si>
+    <t>test_08_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", }</t>
+  </si>
+  <si>
+    <t>Node8_13_NV</t>
+  </si>
+  <si>
+    <t>Node 8 duplicated</t>
+  </si>
+  <si>
+    <t>test_08_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es""ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node9_14_NV</t>
+  </si>
+  <si>
+    <t>Node 9 modified</t>
+  </si>
+  <si>
+    <t>test_09_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"?</t>
+  </si>
+  <si>
+    <t>Possible testcases</t>
+  </si>
+  <si>
+    <t>EXCEPTIONS</t>
+  </si>
+  <si>
+    <t>Node10_15_NV</t>
+  </si>
+  <si>
+    <t>Node 10 deleted</t>
+  </si>
+  <si>
+    <t>test_10_deleted.json</t>
+  </si>
+  <si>
+    <t>{: "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Order Id is valid(double check)</t>
+  </si>
+  <si>
+    <t>Input file not found</t>
+  </si>
+  <si>
+    <t>Node10_16_NV</t>
+  </si>
+  <si>
+    <t>Node 10 duplicated</t>
+  </si>
+  <si>
+    <t>test_10_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID""OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>valid alg value</t>
+  </si>
+  <si>
+    <t>Input file has no JSON format</t>
+  </si>
+  <si>
+    <t>Node11_17_NV</t>
+  </si>
+  <si>
+    <t>Node 11 deleted</t>
+  </si>
+  <si>
+    <t>test_11_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID" "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>valid "type"</t>
+  </si>
+  <si>
+    <t>JSON dont have expected structure</t>
+  </si>
+  <si>
+    <t>Node11_18_NV</t>
+  </si>
+  <si>
+    <t>Node 11 duplicated</t>
+  </si>
+  <si>
+    <t>test_11_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID":: "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>valid "order id"</t>
+  </si>
+  <si>
+    <t>JSON no valid values</t>
+  </si>
+  <si>
+    <t>test_12_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": , "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>valid "issued_at"</t>
+  </si>
+  <si>
+    <t>Order not found in roders archive?</t>
+  </si>
+  <si>
+    <t>Node 12 duplicated</t>
+  </si>
+  <si>
+    <t>test_12_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f""e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>valid "delivery day"</t>
+  </si>
+  <si>
+    <t>Internal processor error when obtaining the signature</t>
+  </si>
+  <si>
+    <t>Node 13 deleted</t>
+  </si>
+  <si>
+    <t>test_13_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", : "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>valid "tracking code"</t>
+  </si>
+  <si>
+    <t>Node 13 duplicated</t>
+  </si>
+  <si>
+    <t>test_13_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail""ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Stoded everything into a file</t>
+  </si>
+  <si>
+    <t>Node 14 deleted</t>
+  </si>
+  <si>
+    <t>test_14_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail" "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 14 duplicated</t>
+  </si>
+  <si>
+    <t>test_14_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail":: "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Same as 11_duplicated</t>
+  </si>
+  <si>
+    <t>Node 15 deleted</t>
+  </si>
+  <si>
+    <t>test_15_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": }</t>
+  </si>
+  <si>
+    <t>Node 15 duplicated</t>
+  </si>
+  <si>
+    <t>test_15_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es""example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 16 deleted</t>
+  </si>
+  <si>
+    <t>test_16_deleted.json</t>
+  </si>
+  <si>
+    <t>{OrderID": "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 16 duplicated</t>
+  </si>
+  <si>
+    <t>test_16_duplicated.json</t>
+  </si>
+  <si>
+    <t>{""OrderID": "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 17 deleted</t>
+  </si>
+  <si>
+    <t>test_17_deleted.json</t>
+  </si>
+  <si>
+    <t>{"": "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 17 duplicated</t>
+  </si>
+  <si>
+    <t>test_17_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderIDOrderID": "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 18 deleted</t>
+  </si>
+  <si>
+    <t>test_18_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID: "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 18 duplicated</t>
+  </si>
+  <si>
+    <t>test_18_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID"": "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Same as 16_duplicated</t>
+  </si>
+  <si>
+    <t>Node 19 modified</t>
+  </si>
+  <si>
+    <t>test_19_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID"= "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 20 deleted</t>
+  </si>
+  <si>
+    <t>test_20_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 20 duplicated</t>
+  </si>
+  <si>
+    <t>test_20_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": ""e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 21  deleted</t>
+  </si>
+  <si>
+    <t>test_21_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 21  duplicated</t>
+  </si>
+  <si>
+    <t>test_21_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565fe01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 22deleted</t>
+  </si>
+  <si>
+    <t>test_22_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f, "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 22 duplicated</t>
+  </si>
+  <si>
+    <t>test_22_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f"", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 23 deleted</t>
+  </si>
+  <si>
+    <t>test_23_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 23 duplicated</t>
+  </si>
+  <si>
+    <t>test_23_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", ""ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 24 deleted</t>
+  </si>
+  <si>
+    <t>test_24_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 24 duplicated</t>
+  </si>
+  <si>
+    <t>test_24_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmailContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 25 deleted</t>
+  </si>
+  <si>
+    <t>test_25_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail: "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 25 duplicated</t>
+  </si>
+  <si>
+    <t>test_25_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail"": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 26 modified</t>
+  </si>
+  <si>
+    <t>test_26_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail"= "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 27 deleted</t>
+  </si>
+  <si>
+    <t>test_27_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 27 duplicated</t>
+  </si>
+  <si>
+    <t>test_27_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": ""example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 28 deleted</t>
+  </si>
+  <si>
+    <t>test_28_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": ""}</t>
+  </si>
+  <si>
+    <t>Node 28 duplicated</t>
+  </si>
+  <si>
+    <t>test_28_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.esexample@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 29 deleted</t>
+  </si>
+  <si>
+    <t>test_29_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es}</t>
+  </si>
+  <si>
+    <t>Node 29 duplicated</t>
+  </si>
+  <si>
+    <t>test_29_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es""}</t>
+  </si>
+  <si>
+    <t>Node 30 modified</t>
+  </si>
+  <si>
+    <t>test_30_modified.json</t>
+  </si>
+  <si>
+    <t>{=OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 31 modified</t>
+  </si>
+  <si>
+    <t>test_31_modified.json</t>
+  </si>
+  <si>
+    <t>{"=": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 32 modified</t>
+  </si>
+  <si>
+    <t>test_32_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID=: "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 33 modified</t>
+  </si>
+  <si>
+    <t>test_33_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": =e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 34 modified</t>
+  </si>
+  <si>
+    <t>test_34_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "$", "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 35 modified</t>
+  </si>
+  <si>
+    <t>test_35_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f=, "ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 36 modified</t>
+  </si>
+  <si>
+    <t>test_37_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", =ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 37 modified</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "$": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 38 modified</t>
+  </si>
+  <si>
+    <t>test_38_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail=: "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 39 modified</t>
+  </si>
+  <si>
+    <t>test_39_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": =example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 40 deleted</t>
+  </si>
+  <si>
+    <t>test_40_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Node 40 duplicated</t>
+  </si>
+  <si>
+    <t>test_40_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "exampleexample@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 41 deleted</t>
+  </si>
+  <si>
+    <t>test_41_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "exampleinf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 41 duplicated</t>
+  </si>
+  <si>
+    <t>test_41_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 42 deleted</t>
+  </si>
+  <si>
+    <t>test_42_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@.es"}</t>
+  </si>
+  <si>
+    <t>Node 42 duplicated</t>
+  </si>
+  <si>
+    <t>test_42_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3minf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 43 deleted</t>
+  </si>
+  <si>
+    <t>test_43_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3mes"}</t>
+  </si>
+  <si>
+    <t>Node 43 duplicated</t>
+  </si>
+  <si>
+    <t>test_43_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m..es"}</t>
+  </si>
+  <si>
+    <t>Node 44 deleted</t>
+  </si>
+  <si>
+    <t>test_44_deleted.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m."}</t>
+  </si>
+  <si>
+    <t>Node 44 duplicated</t>
+  </si>
+  <si>
+    <t>test_44_duplicated.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.eses"}</t>
+  </si>
+  <si>
+    <t>Node 45 modified</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es=}</t>
+  </si>
+  <si>
+    <t>Node 46 modified</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "e@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node46_75_NV</t>
+  </si>
+  <si>
+    <t>Node 46 modified_nv</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "$@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node47_76_NV</t>
+  </si>
+  <si>
+    <t>Node 47 modified</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example$inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 48 modified</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@grade.es"}</t>
+  </si>
+  <si>
+    <t>Node 48 modified_nv</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f",
+  "ContactEmail": "example@$.es"}</t>
+  </si>
+  <si>
+    <t>Node 49 modified</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m$es"}</t>
+  </si>
+  <si>
+    <t>Node 50 modified</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.$"}</t>
+  </si>
+  <si>
+    <t>The data of the json has no valid values</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>tests nº</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>validate_tracking_code</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t>Most relevant path in which the tracking code match the regular expresion</t>
+  </si>
+  <si>
+    <t>Dont need to return anything, 
+just dont raise an error to know its ok</t>
+  </si>
+  <si>
+    <t>A-B-C</t>
+  </si>
+  <si>
+    <t>The tracking code doesnt match the regular expresion</t>
+  </si>
+  <si>
+    <t>56df104b603f55548cdf5fff4bfe</t>
+  </si>
+  <si>
+    <t>Internal Processing error</t>
+  </si>
+  <si>
+    <t>Error in tarcking code</t>
+  </si>
+  <si>
+    <t>tracking_code_searcher</t>
+  </si>
+  <si>
+    <t>A-B-C-E-G-H-G-H-I-J-K</t>
+  </si>
+  <si>
+    <t>Most relevant path in which the tracking code is not found the first one in order_shipping</t>
+  </si>
+  <si>
+    <t>45c825c1ebbb0fdae6c62a00b7e19fc5c1d7b4c256ddb1793394e1cccf117a8b</t>
+  </si>
+  <si>
+    <t>{"product_id": "8421691423220",
+"order_id": "85472b176bfa29087aeb991f80385f6c",
+"delivery_email": "example@alumnos.uc3m.es",
+"issued_at": 1678233600.0,
+"delivery_day": 1678320000.0,
+"tracking_code":
+"45c825c1ebbb0fdae6c62a00b7e19fc5c1d7b4c256ddb1793394e1cccf117a8b"}</t>
+  </si>
+  <si>
+    <t>Since its not comon for a loop to find 
+the result value the first one,
+ we decided to have the most relevant
+the second iteration of the loop</t>
+  </si>
+  <si>
+    <t>Loop test and basic path</t>
+  </si>
+  <si>
+    <t>A-B-C-D</t>
+  </si>
+  <si>
+    <t>Deviates in node C, opening the order_shipping.json</t>
+  </si>
+  <si>
+    <t>File not found</t>
+  </si>
+  <si>
+    <t>The order_shipping file provided 
+is not valid</t>
+  </si>
+  <si>
+    <t>Loop test non-basic path</t>
+  </si>
+  <si>
+    <t>A-B-C-E-F</t>
+  </si>
+  <si>
+    <t>Deviates in node D, loading the data of the json</t>
+  </si>
+  <si>
+    <t>JSON has not the expected structure</t>
+  </si>
+  <si>
+    <t>Opened the  file but does not 
+have JSON format</t>
+  </si>
+  <si>
+    <t>A-B-C-E-G-J-K</t>
+  </si>
+  <si>
+    <t>No data in the json file</t>
+  </si>
+  <si>
+    <t>fabada4b603f5fac5190b2225a5548cdf5fff4d62c5f277c28295b1e11aa0bfe</t>
+  </si>
+  <si>
+    <t>Tracking code not found in the database of requests</t>
+  </si>
+  <si>
+    <t>The file does not have any data</t>
+  </si>
+  <si>
+    <t>A-B-C-E-G-H-I-J-L</t>
+  </si>
+  <si>
+    <t>Iterate through the loop once</t>
+  </si>
+  <si>
+    <t>"product_id": "8421691423220",
+                "order_id": "e01521684a7f9535e9fa098a2b86565f",
+                "delivery_email": "100472175@alumnos.uc3m.es",
+                "issued_at": 1678233600.0,
+                "delivery_day": 1678838400.0,
+                "tracking_code": "56df104b603f5fac5190b2225a5548cdf5fff4d62c5f277c28295b1e11aa0bfe"</t>
+  </si>
+  <si>
+    <t>The Json dos not have a JSON valid format</t>
+  </si>
+  <si>
+    <t>A-B-C-E-G-H-G-H-I-J-L</t>
+  </si>
+  <si>
+    <t>Iterate through the loop but dont find an equal hash</t>
+  </si>
+  <si>
+    <t>56df104b603f5fac5190b2225a5548cdf5fff4d7775f277c28295b1e11aa0bfe</t>
+  </si>
+  <si>
+    <t>Hash does not match</t>
+  </si>
+  <si>
+    <t>A-B-C-E-G-H-G-H-G-H-G-H-G-H-G-H-G-H-G-H-G-H-I-J-K</t>
+  </si>
+  <si>
+    <t>Max-1 instances of the loop (max is 10)</t>
+  </si>
+  <si>
+    <t>Iterates though the loop 9 times to look for a valid tracking code, finally finding one</t>
+  </si>
+  <si>
+    <t>A-B-C-E-G-H-G-H-G-H-G-H-G-H-G-H-G-H-G-H-G-H-G-H-I-J-K</t>
+  </si>
+  <si>
+    <t>Max instances of the loop (max is 10)</t>
+  </si>
+  <si>
+    <t>Iterates though the loop 10 times to look for a valid tracking code and then finds one</t>
+  </si>
+  <si>
+    <t>hash_checker</t>
+  </si>
+  <si>
+    <t>A-C-E-F-E-F-G-H-J-L-M-N-O</t>
+  </si>
+  <si>
+    <t>Most relevant path in which the order_id is not found the first one in order_request</t>
+  </si>
+  <si>
+    <t>Dont need to return anything, just dont raise an error to know its ok</t>
+  </si>
+  <si>
+    <t>Deviates in node A, opening the order_request.json</t>
+  </si>
+  <si>
+    <t>The order_request.json file can not be found</t>
+  </si>
+  <si>
+    <t>A-C-D</t>
+  </si>
+  <si>
+    <t>Deviates in node C, loading the data of the json</t>
+  </si>
+  <si>
+    <t>A-C-E-H-I</t>
+  </si>
+  <si>
+    <t>Order id not found in the database of requests</t>
+  </si>
+  <si>
+    <t>The order_id hash can not be found in the file order_request.json</t>
+  </si>
+  <si>
+    <t>A-C-E-F-G-H-J-K-M-N-O</t>
+  </si>
+  <si>
+    <t>A-C-E-F-G-H-I</t>
+  </si>
+  <si>
+    <t>The tracking_number hash can not be found in the file order_shipping.json</t>
+  </si>
+  <si>
+    <t>A-C-E-F-E-F-G-H-J-K-M-N-O</t>
+  </si>
+  <si>
+    <t>Iterate through the loop twice but with a PREMIUM order</t>
+  </si>
+  <si>
+    <t>76866c4e46c8e46cfc5707988823c835f79e5709fc0082aa48119920a824b4b8</t>
+  </si>
+  <si>
+    <t>A-C-E-F-E-F-G-H-J-L-M-N-P</t>
+  </si>
+  <si>
+    <t>Tracking codes dont match (data has been modified)</t>
+  </si>
+  <si>
+    <t>The data has been modified</t>
+  </si>
+  <si>
+    <t>The data from the database, the order_request.json has been modified</t>
+  </si>
+  <si>
+    <t>A-C-E-F-E-F-E-F-E-F-E-F-E-F-E-F-E-F-E-F-G-H-J-L-M-N-P</t>
+  </si>
+  <si>
+    <t>A-C-E-F-E-F-E-F-E-F-E-F-E-F-E-F-E-F-E-F-E-F-G-H-J-L-M-N-P</t>
+  </si>
+  <si>
+    <t>deliver_product</t>
+  </si>
+  <si>
+    <t>Most relevant path that returns true since the product has been delivered</t>
+  </si>
+  <si>
+    <t>The delivery date is the same as the actual time</t>
+  </si>
+  <si>
+    <t>A-B-C-E</t>
+  </si>
+  <si>
+    <t>The product has not been delivered yet</t>
+  </si>
+  <si>
+    <t>The current timestamp is not the one in the shipping</t>
+  </si>
+  <si>
     <t>CE_V_1, CE_V_7</t>
   </si>
   <si>
@@ -673,34 +1798,13 @@
   </si>
   <si>
     <t>CE_NV_40</t>
-  </si>
-  <si>
-    <t>For the ProductID</t>
-  </si>
-  <si>
-    <t>Correct Equivalence Class = Correct EAN 13 Code</t>
-  </si>
-  <si>
-    <t>Check Digit is wrong</t>
-  </si>
-  <si>
-    <t>Check all digits</t>
-  </si>
-  <si>
-    <t>Datatype ≠</t>
-  </si>
-  <si>
-    <t>Boundary Values BV:</t>
-  </si>
-  <si>
-    <t>Length 12, 13, 14 BC*3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -739,8 +1843,24 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +1899,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFD9E1F2"/>
       </patternFill>
@@ -790,7 +1922,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -827,17 +1959,87 @@
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -850,6 +2052,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1456,7 +2662,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -1498,7 +2704,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -1540,7 +2746,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -1582,7 +2788,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -1622,7 +2828,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -1664,7 +2870,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -1706,7 +2912,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -1748,7 +2954,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
@@ -1790,7 +2996,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -1830,7 +3036,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -1872,7 +3078,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
@@ -1914,7 +3120,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>83</v>
@@ -1954,7 +3160,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>83</v>
@@ -1994,7 +3200,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>83</v>
@@ -2034,7 +3240,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>83</v>
@@ -2074,7 +3280,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
@@ -2116,7 +3322,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -2156,7 +3362,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
@@ -2198,7 +3404,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
@@ -2240,7 +3446,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -2282,7 +3488,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>14</v>
@@ -2324,7 +3530,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -2366,7 +3572,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>14</v>
@@ -2408,7 +3614,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
@@ -2450,7 +3656,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
@@ -2492,7 +3698,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>14</v>
@@ -2534,7 +3740,7 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>14</v>
@@ -2574,7 +3780,7 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>14</v>
@@ -2616,7 +3822,7 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>14</v>
@@ -2657,7 +3863,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>14</v>
@@ -2698,7 +3904,7 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>14</v>
@@ -2739,7 +3945,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>14</v>
@@ -2780,7 +3986,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>150</v>
@@ -2821,7 +4027,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>150</v>
@@ -2862,7 +4068,7 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>150</v>
@@ -2903,7 +4109,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>150</v>
@@ -2944,7 +4150,7 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>150</v>
@@ -2958,7 +4164,7 @@
       <c r="E46" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -2989,6 +4195,4382 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="12.75"/>
+    <col customWidth="1" min="5" max="5" width="18.63"/>
+    <col customWidth="1" min="6" max="6" width="19.0"/>
+    <col customWidth="1" min="7" max="7" width="21.5"/>
+    <col customWidth="1" min="8" max="8" width="37.88"/>
+    <col customWidth="1" min="9" max="9" width="63.13"/>
+    <col customWidth="1" min="10" max="10" width="19.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" ref="E20:E64" si="1">CONCATENATE("Node",B20,"_",A20,"_","NV")</f>
+        <v>Node12_19_NV</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node12_20_NV</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node13_21_NV</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node13_22_NV</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node14_23_NV</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node14_24_NV</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node15_25_NV</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node15_26_NV</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node16_27_NV</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node16_28_NV</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node17_29_NV</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node17_30_NV</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node18_31_NV</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node18_32_NV</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node19_33_NV</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node20_34_NV</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node20_35_NV</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node21_36_NV</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node21_37_NV</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node22_38_NV</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node22_39_NV</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node23_40_NV</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node23_41_NV</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node24_42_NV</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node24_43_NV</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node25_44_NV</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node25_45_NV</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node26_46_NV</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node27_47_NV</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node27_48_NV</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node28_49_NV</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node28_50_NV</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node29_51_NV</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node29_52_NV</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node30_53_NV</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node31_54_NV</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node32_55_NV</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node33_56_NV</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="B58" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node34_57_NV</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="B59" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node35_58_NV</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node36_59_NV</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node37_60_NV</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="B62" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node38_61_NV</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>62.0</v>
+      </c>
+      <c r="B63" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node39_62_NV</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="B64" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Node40_63_NV</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>64.0</v>
+      </c>
+      <c r="B65" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f>CONCATENATE("Node",B65,"_",A65,"_","V")</f>
+        <v>Node40_64_V</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f t="shared" ref="E66:E68" si="2">CONCATENATE("Node",B66,"_",A66,"_","NV")</f>
+        <v>Node41_65_NV</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>66.0</v>
+      </c>
+      <c r="B67" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Node41_66_NV</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="14">
+        <v>42.0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Node42_67_NV</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="14">
+        <v>42.0</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f>CONCATENATE("Node",B69,"_",A69,"_","V")</f>
+        <v>Node42_68_V</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>69.0</v>
+      </c>
+      <c r="B70" s="14">
+        <v>43.0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f t="shared" ref="E70:E74" si="3">CONCATENATE("Node",B70,"_",A70,"_","NV")</f>
+        <v>Node43_69_NV</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="B71" s="14">
+        <v>43.0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Node43_70_NV</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J71" s="8"/>
+      <c r="K71" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3">
+        <v>71.0</v>
+      </c>
+      <c r="B72" s="14">
+        <v>44.0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Node44_71_NV</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3">
+        <v>72.0</v>
+      </c>
+      <c r="B73" s="14">
+        <v>44.0</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Node44_72_NV</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3">
+        <v>73.0</v>
+      </c>
+      <c r="B74" s="14">
+        <v>45.0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Node45_73_NV</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" ref="G74:G75" si="4">CONCATENATE("test_",B74,"_modified.json")</f>
+        <v>test_45_modified.json</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3">
+        <v>74.0</v>
+      </c>
+      <c r="B75" s="14">
+        <v>46.0</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f>CONCATENATE("Node",B75,"_",A75,"_","V")</f>
+        <v>Node46_74_V</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>test_46_modified.json</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3">
+        <v>75.0</v>
+      </c>
+      <c r="B76" s="14">
+        <v>46.0</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f>CONCATENATE("test_46_modifiednv.json")</f>
+        <v>test_46_modifiednv.json</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3">
+        <v>76.0</v>
+      </c>
+      <c r="B77" s="14">
+        <v>47.0</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f>CONCATENATE("test_",B77,"_modified.json")</f>
+        <v>test_47_modified.json</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J77" s="8"/>
+      <c r="K77" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3">
+        <v>77.0</v>
+      </c>
+      <c r="B78" s="14">
+        <v>48.0</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f>CONCATENATE("Node",48,"_",A78,"_","V")</f>
+        <v>Node48_77_V</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f>CONCATENATE("test_48_modified.json")</f>
+        <v>test_48_modified.json</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3">
+        <v>78.0</v>
+      </c>
+      <c r="B79" s="14">
+        <v>48.0</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f t="shared" ref="E79:E81" si="5">CONCATENATE("Node",B79,"_",A79,"_","NV")</f>
+        <v>Node48_78_NV</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f>CONCATENATE("test_48_modifiednv.json")</f>
+        <v>test_48_modifiednv.json</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J79" s="8"/>
+      <c r="K79" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3">
+        <v>79.0</v>
+      </c>
+      <c r="B80" s="14">
+        <v>49.0</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Node49_79_NV</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" ref="G80:G81" si="6">CONCATENATE("test_",B80,"_modified.json")</f>
+        <v>test_49_modified.json</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J80" s="8"/>
+      <c r="K80" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="B81" s="14">
+        <v>50.0</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Node50_80_NV</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>test_50_modified.json</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J81" s="8"/>
+      <c r="K81" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K3:K81">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH(("YES"),(K3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K81">
+    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="YES">
+      <formula>ISERROR(SEARCH(("YES"),(K3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K80">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>"IF(D77"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="26.13"/>
+    <col customWidth="1" min="5" max="5" width="46.75"/>
+    <col customWidth="1" min="6" max="6" width="23.25"/>
+    <col customWidth="1" min="7" max="7" width="42.38"/>
+    <col customWidth="1" min="8" max="8" width="31.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>CONCATENATE(A2,"Path","1")</f>
+        <v>validate_tracking_codePath1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>CONCATENATE(A3,"Path","2")</f>
+        <v>validate_tracking_codePath2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f>CONCATENATE(A4,"Path","1")</f>
+        <v>tracking_code_searcherPath1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>CONCATENATE(A5,"Path","2")</f>
+        <v>tracking_code_searcherPath2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>CONCATENATE(A6,"Path","3")</f>
+        <v>tracking_code_searcherPath3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>CONCATENATE(A7,"Path","4")</f>
+        <v>tracking_code_searcherPath4</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>CONCATENATE(A8,"Path","5")</f>
+        <v>tracking_code_searcherPath5</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>CONCATENATE(A9,"Path","6")</f>
+        <v>tracking_code_searcherPath6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f>CONCATENATE(A10,"Path","7")</f>
+        <v>tracking_code_searcherPath7</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f>CONCATENATE(A11,"Path","8")</f>
+        <v>tracking_code_searcherPath8</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f>CONCATENATE(A12,"Path","1")</f>
+        <v>hash_checkerPath1</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="G12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>CONCATENATE(A13,"Path","2")</f>
+        <v>hash_checkerPath2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>CONCATENATE(A14,"Path","3")</f>
+        <v>hash_checkerPath3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B15" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D15" s="19" t="str">
+        <f>CONCATENATE(A15,"Path","4")</f>
+        <v>hash_checkerPath4</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B16" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="D16" s="19" t="str">
+        <f>CONCATENATE(A16,"Path","5")</f>
+        <v>hash_checkerPath5</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>CONCATENATE(A17,"Path","6")</f>
+        <v>hash_checkerPath6</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>CONCATENATE(A18,"Path","7")</f>
+        <v>hash_checkerPath7</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>CONCATENATE(A19,"Path","8")</f>
+        <v>hash_checkerPath8</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="B20" s="29">
+        <v>19.0</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="D20" s="26" t="str">
+        <f>CONCATENATE(A20,"Path","9")</f>
+        <v>hash_checkerPath9</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="G20" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="B21" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="26" t="str">
+        <f>CONCATENATE(A21,"Path","10")</f>
+        <v>hash_checkerPath10</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="G21" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>CONCATENATE(A22,"Path","1")</f>
+        <v>deliver_productPath1</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>CONCATENATE(A23,"Path","2")</f>
+        <v>deliver_productPath2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3076,7 +8658,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>166</v>
+        <v>526</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>18</v>
@@ -3288,7 +8870,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>167</v>
+        <v>527</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
@@ -3328,7 +8910,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>168</v>
+        <v>528</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>40</v>
@@ -3368,7 +8950,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>169</v>
+        <v>529</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>49</v>
@@ -3408,7 +8990,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>170</v>
+        <v>530</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>49</v>
@@ -3448,7 +9030,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>171</v>
+        <v>531</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>53</v>
@@ -3488,10 +9070,10 @@
         <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>172</v>
+        <v>532</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>173</v>
+        <v>533</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>19</v>
@@ -3528,7 +9110,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>174</v>
+        <v>534</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>62</v>
@@ -3568,7 +9150,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>175</v>
+        <v>535</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>64</v>
@@ -3608,7 +9190,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>176</v>
+        <v>536</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>67</v>
@@ -3648,7 +9230,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>177</v>
+        <v>537</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>69</v>
@@ -3688,10 +9270,10 @@
         <v>25</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>178</v>
+        <v>538</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>179</v>
+        <v>539</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>19</v>
@@ -3728,7 +9310,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>76</v>
@@ -3768,7 +9350,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>181</v>
+        <v>541</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>80</v>
@@ -3808,7 +9390,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>182</v>
+        <v>542</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>98</v>
@@ -3848,7 +9430,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>183</v>
+        <v>543</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>100</v>
@@ -3863,7 +9445,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>184</v>
+        <v>544</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>23</v>
@@ -3888,7 +9470,7 @@
         <v>102</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>185</v>
+        <v>545</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>104</v>
@@ -3909,7 +9491,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>186</v>
+        <v>546</v>
       </c>
       <c r="N25" s="8"/>
     </row>
@@ -3919,7 +9501,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>187</v>
+        <v>547</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>10</v>
@@ -3928,7 +9510,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>188</v>
+        <v>548</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>108</v>
@@ -3959,7 +9541,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>187</v>
+        <v>547</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
@@ -3968,7 +9550,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>189</v>
+        <v>549</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>112</v>
@@ -3999,7 +9581,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>187</v>
+        <v>547</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
@@ -4008,7 +9590,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>190</v>
+        <v>550</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>116</v>
@@ -4048,7 +9630,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>191</v>
+        <v>551</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>18</v>
@@ -4088,10 +9670,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>192</v>
+        <v>552</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>193</v>
+        <v>553</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>19</v>
@@ -4128,10 +9710,10 @@
         <v>25</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>194</v>
+        <v>554</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>195</v>
+        <v>555</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>19</v>
@@ -4168,7 +9750,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>196</v>
+        <v>556</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>127</v>
@@ -4208,7 +9790,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>197</v>
+        <v>557</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>131</v>
@@ -4248,10 +9830,10 @@
         <v>25</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>198</v>
+        <v>558</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>199</v>
+        <v>559</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>19</v>
@@ -4266,7 +9848,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>136</v>
@@ -4288,10 +9870,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>201</v>
+        <v>561</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>202</v>
+        <v>562</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>19</v>
@@ -4328,10 +9910,10 @@
         <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>203</v>
+        <v>563</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>204</v>
+        <v>564</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>19</v>
@@ -4367,10 +9949,10 @@
         <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>205</v>
+        <v>565</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>206</v>
+        <v>566</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>19</v>
@@ -4406,10 +9988,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>207</v>
+        <v>567</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>208</v>
+        <v>568</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>19</v>
@@ -4436,7 +10018,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>209</v>
+        <v>569</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>9</v>
@@ -4445,7 +10027,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>210</v>
+        <v>570</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>85</v>
@@ -4473,7 +10055,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>209</v>
+        <v>569</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
@@ -4482,7 +10064,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>211</v>
+        <v>571</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>89</v>
@@ -4511,7 +10093,7 @@
         <v>83</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>209</v>
+        <v>569</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -4520,7 +10102,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>212</v>
+        <v>572</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>92</v>
@@ -4549,7 +10131,7 @@
         <v>83</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>209</v>
+        <v>569</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -4558,7 +10140,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>213</v>
+        <v>573</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>95</v>
@@ -4652,7 +10234,7 @@
         <v>25</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>214</v>
+        <v>574</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>153</v>
@@ -4673,9 +10255,9 @@
         <v>23</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N54" s="13"/>
+        <v>575</v>
+      </c>
+      <c r="N54" s="30"/>
     </row>
     <row r="55">
       <c r="A55" s="3"/>
@@ -4692,10 +10274,10 @@
         <v>25</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>216</v>
+        <v>576</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>217</v>
+        <v>577</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>19</v>
@@ -4713,7 +10295,7 @@
         <v>23</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>215</v>
+        <v>575</v>
       </c>
       <c r="N55" s="8"/>
     </row>
@@ -4732,7 +10314,7 @@
         <v>25</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>218</v>
+        <v>578</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>159</v>
@@ -4753,7 +10335,7 @@
         <v>23</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>215</v>
+        <v>575</v>
       </c>
       <c r="N56" s="8"/>
     </row>
@@ -4772,7 +10354,7 @@
         <v>16</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>219</v>
+        <v>579</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>162</v>
@@ -4793,67 +10375,9 @@
         <v>23</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>215</v>
+        <v>575</v>
       </c>
       <c r="N57" s="8"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="37.75"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>226</v>
-      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5363B4-72FF-40DB-BEC1-705B55F1D2B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Funcion2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Funcion 3" sheetId="3" r:id="rId6"/>
-    <sheet state="hidden" name="Copia de Hoja 1" sheetId="4" r:id="rId7"/>
+    <sheet name="Function1" sheetId="1" r:id="rId1"/>
+    <sheet name="Function2" sheetId="2" r:id="rId2"/>
+    <sheet name="Function 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Copia de Hoja 1" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A8">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t xml:space="preserve">Light Blue rows are also for Loop testcases</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Light Blue rows are also for Loop testcases</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -29,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="566">
   <si>
     <t>#</t>
   </si>
@@ -295,6 +312,9 @@
     <t>"52998"</t>
   </si>
   <si>
+    <t>682a8cc1839e55baa794fc4e485e66c4</t>
+  </si>
+  <si>
     <t>BV_V_34</t>
   </si>
   <si>
@@ -304,6 +324,9 @@
     <t>"MICASA, MADRID, ESPAÑ"</t>
   </si>
   <si>
+    <t>68b0b2f592fcada21987acb8526bf01d</t>
+  </si>
+  <si>
     <t>BV_V_35</t>
   </si>
   <si>
@@ -313,6 +336,9 @@
     <t>"Calle de la Gran Via de Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, Madrid, ESPA"</t>
   </si>
   <si>
+    <t>f0930f6ba28b377ace6a0980af15d9ba</t>
+  </si>
+  <si>
     <t>BV_V_36</t>
   </si>
   <si>
@@ -322,6 +348,9 @@
     <t>"ESTE ES UNA DIRECCIO"</t>
   </si>
   <si>
+    <t>149965baa3bd537a24a8357d9713304c</t>
+  </si>
+  <si>
     <t>EC_V_17</t>
   </si>
   <si>
@@ -545,9 +574,6 @@
   </si>
   <si>
     <t>EXPECTED RESULT</t>
-  </si>
-  <si>
-    <t>Done?</t>
   </si>
   <si>
     <t>T</t>
@@ -587,9 +613,6 @@
     <t>JSON has not the expected stucture</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Node2_03_NV</t>
   </si>
   <si>
@@ -737,12 +760,6 @@
     <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"?</t>
   </si>
   <si>
-    <t>Possible testcases</t>
-  </si>
-  <si>
-    <t>EXCEPTIONS</t>
-  </si>
-  <si>
     <t>Node10_15_NV</t>
   </si>
   <si>
@@ -755,12 +772,6 @@
     <t>{: "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
   </si>
   <si>
-    <t>Order Id is valid(double check)</t>
-  </si>
-  <si>
-    <t>Input file not found</t>
-  </si>
-  <si>
     <t>Node10_16_NV</t>
   </si>
   <si>
@@ -773,12 +784,6 @@
     <t>{"OrderID""OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
   </si>
   <si>
-    <t>valid alg value</t>
-  </si>
-  <si>
-    <t>Input file has no JSON format</t>
-  </si>
-  <si>
     <t>Node11_17_NV</t>
   </si>
   <si>
@@ -791,12 +796,6 @@
     <t>{"OrderID" "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
   </si>
   <si>
-    <t>valid "type"</t>
-  </si>
-  <si>
-    <t>JSON dont have expected structure</t>
-  </si>
-  <si>
     <t>Node11_18_NV</t>
   </si>
   <si>
@@ -809,24 +808,12 @@
     <t>{"OrderID":: "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
   </si>
   <si>
-    <t>valid "order id"</t>
-  </si>
-  <si>
-    <t>JSON no valid values</t>
-  </si>
-  <si>
     <t>test_12_deleted.json</t>
   </si>
   <si>
     <t>{"OrderID": , "ContactEmail": "example@inf.uc3m.es"}</t>
   </si>
   <si>
-    <t>valid "issued_at"</t>
-  </si>
-  <si>
-    <t>Order not found in roders archive?</t>
-  </si>
-  <si>
     <t>Node 12 duplicated</t>
   </si>
   <si>
@@ -836,12 +823,6 @@
     <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f""e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
   </si>
   <si>
-    <t>valid "delivery day"</t>
-  </si>
-  <si>
-    <t>Internal processor error when obtaining the signature</t>
-  </si>
-  <si>
     <t>Node 13 deleted</t>
   </si>
   <si>
@@ -851,9 +832,6 @@
     <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", : "example@inf.uc3m.es"}</t>
   </si>
   <si>
-    <t>valid "tracking code"</t>
-  </si>
-  <si>
     <t>Node 13 duplicated</t>
   </si>
   <si>
@@ -861,9 +839,6 @@
   </si>
   <si>
     <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail""ContactEmail": "example@inf.uc3m.es"}</t>
-  </si>
-  <si>
-    <t>Stoded everything into a file</t>
   </si>
   <si>
     <t>Node 14 deleted</t>
@@ -1246,9 +1221,6 @@
   </si>
   <si>
     <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "@inf.uc3m.es"}</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Node 40 duplicated</t>
@@ -1799,65 +1771,76 @@
   <si>
     <t>CE_NV_40</t>
   </si>
+  <si>
+    <t>True</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF067D17"/>
       <name val="&quot;JetBrains Mono&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF008000"/>
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1865,7 +1848,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1917,150 +1900,85 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2250,39 +2168,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.0"/>
-    <col customWidth="1" min="2" max="2" width="7.88"/>
-    <col customWidth="1" min="3" max="3" width="10.75"/>
-    <col customWidth="1" min="4" max="4" width="15.25"/>
-    <col customWidth="1" min="5" max="5" width="13.63"/>
-    <col customWidth="1" min="6" max="6" width="14.38"/>
-    <col customWidth="1" min="7" max="7" width="34.0"/>
-    <col customWidth="1" min="8" max="8" width="20.25"/>
-    <col customWidth="1" min="9" max="9" width="11.88"/>
-    <col customWidth="1" min="10" max="10" width="48.0"/>
-    <col customWidth="1" min="11" max="11" width="17.75"/>
-    <col customWidth="1" min="12" max="12" width="10.63"/>
-    <col customWidth="1" min="13" max="13" width="88.63"/>
-    <col customWidth="1" min="14" max="14" width="13.75"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="20.265625" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" customWidth="1"/>
+    <col min="10" max="10" width="48" customWidth="1"/>
+    <col min="11" max="11" width="17.73046875" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" customWidth="1"/>
+    <col min="13" max="13" width="88.59765625" customWidth="1"/>
+    <col min="14" max="14" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2326,9 +2247,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -2368,9 +2289,9 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -2410,9 +2331,9 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2452,9 +2373,9 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -2494,9 +2415,9 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -2536,9 +2457,9 @@
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -2578,9 +2499,9 @@
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
@@ -2618,9 +2539,9 @@
       </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -2660,9 +2581,9 @@
       </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -2702,9 +2623,9 @@
       </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -2744,9 +2665,9 @@
       </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -2786,9 +2707,9 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -2826,9 +2747,9 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -2868,9 +2789,9 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -2910,9 +2831,9 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -2952,9 +2873,9 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
@@ -2994,9 +2915,9 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -3034,9 +2955,9 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -3076,9 +2997,9 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
@@ -3118,9 +3039,9 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>83</v>
@@ -3155,12 +3076,14 @@
       <c r="L21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>83</v>
@@ -3175,10 +3098,10 @@
         <v>16</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>19</v>
@@ -3187,7 +3110,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>22</v>
@@ -3195,12 +3118,14 @@
       <c r="L22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>83</v>
@@ -3215,10 +3140,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>19</v>
@@ -3227,7 +3152,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>22</v>
@@ -3235,12 +3160,14 @@
       <c r="L23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="N23" s="8"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>83</v>
@@ -3255,10 +3182,10 @@
         <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
@@ -3267,7 +3194,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>22</v>
@@ -3275,12 +3202,14 @@
       <c r="L24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
@@ -3295,10 +3224,10 @@
         <v>25</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>19</v>
@@ -3320,9 +3249,9 @@
       </c>
       <c r="N25" s="8"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -3337,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>19</v>
@@ -3356,13 +3285,13 @@
         <v>23</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N26" s="8"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
@@ -3374,13 +3303,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>19</v>
@@ -3392,19 +3321,19 @@
         <v>21</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
@@ -3419,10 +3348,10 @@
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>19</v>
@@ -3434,19 +3363,19 @@
         <v>21</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -3461,10 +3390,10 @@
         <v>25</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>19</v>
@@ -3476,19 +3405,19 @@
         <v>21</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>14</v>
@@ -3500,13 +3429,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>19</v>
@@ -3528,9 +3457,9 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -3545,7 +3474,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>18</v>
@@ -3570,9 +3499,9 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>14</v>
@@ -3587,10 +3516,10 @@
         <v>25</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>19</v>
@@ -3605,16 +3534,16 @@
         <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
@@ -3629,10 +3558,10 @@
         <v>25</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>19</v>
@@ -3647,16 +3576,16 @@
         <v>22</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
@@ -3671,10 +3600,10 @@
         <v>25</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>19</v>
@@ -3689,16 +3618,16 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>14</v>
@@ -3713,10 +3642,10 @@
         <v>25</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>19</v>
@@ -3731,16 +3660,16 @@
         <v>22</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14">
       <c r="A36" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>14</v>
@@ -3755,10 +3684,10 @@
         <v>25</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>19</v>
@@ -3774,13 +3703,13 @@
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14">
       <c r="A37" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>14</v>
@@ -3795,10 +3724,10 @@
         <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>19</v>
@@ -3813,16 +3742,16 @@
         <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:14">
       <c r="A38" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>14</v>
@@ -3837,10 +3766,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>19</v>
@@ -3855,15 +3784,15 @@
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14">
       <c r="A39" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>14</v>
@@ -3878,10 +3807,10 @@
         <v>16</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>19</v>
@@ -3896,15 +3825,15 @@
         <v>22</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14">
       <c r="A40" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>14</v>
@@ -3919,10 +3848,10 @@
         <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>19</v>
@@ -3943,9 +3872,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14">
       <c r="A41" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>14</v>
@@ -3960,10 +3889,10 @@
         <v>16</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>19</v>
@@ -3984,27 +3913,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:14">
       <c r="A42" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>19</v>
@@ -4022,30 +3951,30 @@
         <v>23</v>
       </c>
       <c r="M42" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>19</v>
@@ -4063,33 +3992,33 @@
         <v>23</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>20</v>
@@ -4104,30 +4033,30 @@
         <v>23</v>
       </c>
       <c r="M44" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>19</v>
@@ -4148,27 +4077,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:14">
       <c r="A46" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>19</v>
@@ -4186,45 +4115,48 @@
         <v>23</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="12.75"/>
-    <col customWidth="1" min="5" max="5" width="18.63"/>
-    <col customWidth="1" min="6" max="6" width="19.0"/>
-    <col customWidth="1" min="7" max="7" width="21.5"/>
-    <col customWidth="1" min="8" max="8" width="37.88"/>
-    <col customWidth="1" min="9" max="9" width="63.13"/>
-    <col customWidth="1" min="10" max="10" width="19.63"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="21.46484375" customWidth="1"/>
+    <col min="8" max="8" width="37.86328125" customWidth="1"/>
+    <col min="9" max="9" width="63.1328125" customWidth="1"/>
+    <col min="10" max="10" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -4233,495 +4165,449 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="L15" s="13"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
@@ -4739,1709 +4625,1534 @@
         <v>240</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M16" s="13" t="s">
+      <c r="L16" s="13"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="F17" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="H17" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="I17" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="L17" s="13"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="F18" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M17" s="13" t="s">
+      <c r="G18" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="I18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="L18" s="13"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M18" s="13" t="s">
+      <c r="I19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="L19" s="13"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" ref="E20:E64" si="0">CONCATENATE("Node",B20,"_",A20,"_","NV")</f>
+        <v>Node12_19_NV</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="I20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="L20" s="13"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node12_20_NV</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H21" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="I21" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="L21" s="13"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node13_21_NV</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" s="13" t="s">
+      <c r="G22" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f t="shared" ref="E20:E64" si="1">CONCATENATE("Node",B20,"_",A20,"_","NV")</f>
-        <v>Node12_19_NV</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="I22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node13_22_NV</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="G23" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M20" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="I23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node14_23_NV</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node12_20_NV</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H24" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="I24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node14_24_NV</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M21" s="13" t="s">
+      <c r="G25" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node13_21_NV</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="I25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="G22" s="4" t="s">
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node15_25_NV</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="G26" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M22" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node13_22_NV</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="I26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node15_26_NV</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M23" s="13" t="s">
+      <c r="I27" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node16_27_NV</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node14_23_NV</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H28" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="I28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>16</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node16_28_NV</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node14_24_NV</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H29" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="I29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node17_29_NV</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node15_25_NV</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="H30" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I30" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node17_30_NV</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="G31" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node15_26_NV</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="H31" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="I31" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node18_31_NV</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="G32" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node16_27_NV</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="H32" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="I32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node18_32_NV</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="G33" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node16_28_NV</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="H33" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="I33" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H29" s="12" t="s">
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>19</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node19_33_NV</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node17_29_NV</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H34" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="I34" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="63">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>20</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node20_34_NV</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node17_30_NV</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H35" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="I35" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="63">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>20</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node20_35_NV</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node18_31_NV</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H36" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="I36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="31.5">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node21_36_NV</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node18_32_NV</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H37" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="I37" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="63">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>21</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node21_37_NV</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J33" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node19_33_NV</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="H38" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I38" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" ht="47.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>22</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node22_38_NV</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="G39" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node20_34_NV</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="H39" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="I39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" ht="47.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>22</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node22_39_NV</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="G40" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node20_35_NV</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="H40" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="I40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="47.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>23</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node23_40_NV</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="G41" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node21_36_NV</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="H41" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="I41" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" ht="63">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>23</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node23_41_NV</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="G42" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node21_37_NV</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="H42" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="I42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="47.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8">
+        <v>24</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node24_42_NV</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="G43" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node22_38_NV</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="H43" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I43" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" ht="63">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14">
+        <v>24</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node24_43_NV</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="G44" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node22_39_NV</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="H44" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="I44" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" ht="47.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14">
+        <v>25</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node25_44_NV</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="G45" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node23_40_NV</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="H45" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="I45" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" ht="63">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14">
+        <v>25</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node25_45_NV</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="G46" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node23_41_NV</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="H46" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="I46" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="63">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14">
+        <v>26</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node26_46_NV</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="G47" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="8">
-        <v>24.0</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node24_42_NV</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="H47" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="I47" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" ht="47.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14">
+        <v>27</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node27_47_NV</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="G48" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="14">
-        <v>24.0</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node24_43_NV</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="H48" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="I48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" ht="63">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14">
+        <v>27</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node27_48_NV</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="G49" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="14">
-        <v>25.0</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node25_44_NV</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="H49" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="I49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="47.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14">
+        <v>28</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node28_49_NV</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="G50" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="B46" s="14">
-        <v>25.0</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node25_45_NV</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="H50" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="I50" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" ht="78.75">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14">
+        <v>28</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node28_50_NV</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="G51" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="14">
-        <v>26.0</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node26_46_NV</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="H51" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="I51" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" ht="47.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14">
+        <v>29</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node29_51_NV</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="G52" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3">
-        <v>47.0</v>
-      </c>
-      <c r="B48" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node27_47_NV</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="H52" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="I52" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" ht="63">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14">
+        <v>29</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node29_52_NV</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="G53" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node27_48_NV</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="H53" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="I53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="47.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14">
+        <v>30</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node30_53_NV</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="G54" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="14">
-        <v>28.0</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node28_49_NV</v>
-      </c>
-      <c r="F50" s="4" t="s">
+      <c r="H54" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="I54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" ht="47.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node31_54_NV</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="G55" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="14">
-        <v>28.0</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node28_50_NV</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="H55" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="I55" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" ht="47.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14">
+        <v>32</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node32_55_NV</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="G56" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="14">
-        <v>29.0</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node29_51_NV</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="H56" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="I56" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" ht="47.25">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14">
+        <v>33</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node33_56_NV</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="G57" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3">
-        <v>52.0</v>
-      </c>
-      <c r="B53" s="14">
-        <v>29.0</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node29_52_NV</v>
-      </c>
-      <c r="F53" s="4" t="s">
+      <c r="H57" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="I57" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" ht="31.5">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14">
+        <v>34</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node34_57_NV</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="G58" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3">
-        <v>53.0</v>
-      </c>
-      <c r="B54" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node30_53_NV</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="H58" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="I58" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" ht="47.25">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="14">
+        <v>35</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node35_58_NV</v>
+      </c>
+      <c r="F59" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="G59" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="B55" s="14">
-        <v>31.0</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node31_54_NV</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="H59" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="I59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" ht="47.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="14">
+        <v>36</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node36_59_NV</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="G60" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3">
-        <v>55.0</v>
-      </c>
-      <c r="B56" s="14">
-        <v>32.0</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node32_55_NV</v>
-      </c>
-      <c r="F56" s="4" t="s">
+      <c r="H60" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="I60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" ht="47.25">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="14">
+        <v>37</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node37_60_NV</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="G61" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3">
-        <v>56.0</v>
-      </c>
-      <c r="B57" s="14">
-        <v>33.0</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node33_56_NV</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="I61" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" ht="47.25">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="14">
+        <v>38</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node38_61_NV</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H62" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3">
-        <v>57.0</v>
-      </c>
-      <c r="B58" s="14">
-        <v>34.0</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node34_57_NV</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="I62" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" ht="47.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="14">
+        <v>39</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node39_62_NV</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H63" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3">
-        <v>58.0</v>
-      </c>
-      <c r="B59" s="14">
-        <v>35.0</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node35_58_NV</v>
-      </c>
-      <c r="F59" s="15" t="s">
+      <c r="I63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" ht="47.25">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="14">
+        <v>40</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Node40_63_NV</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H64" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="B60" s="14">
-        <v>36.0</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node36_59_NV</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="B61" s="14">
-        <v>37.0</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node37_60_NV</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3">
-        <v>61.0</v>
-      </c>
-      <c r="B62" s="14">
-        <v>38.0</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node38_61_NV</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J62" s="8"/>
-      <c r="K62" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="B63" s="14">
-        <v>39.0</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node39_62_NV</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3">
-        <v>63.0</v>
-      </c>
-      <c r="B64" s="14">
-        <v>40.0</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Node40_63_NV</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>401</v>
-      </c>
       <c r="I64" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J64" s="8"/>
-      <c r="K64" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="65">
+    </row>
+    <row r="65" spans="1:10" ht="63">
       <c r="A65" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="14">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>16</v>
@@ -6451,133 +6162,121 @@
         <v>Node40_64_V</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J65" s="8"/>
-      <c r="K65" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="66">
+    </row>
+    <row r="66" spans="1:10" ht="47.25">
       <c r="A66" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="14">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" ref="E66:E68" si="2">CONCATENATE("Node",B66,"_",A66,"_","NV")</f>
+        <f t="shared" ref="E66:E68" si="1">CONCATENATE("Node",B66,"_",A66,"_","NV")</f>
         <v>Node41_65_NV</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J66" s="8"/>
-      <c r="K66" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:10" ht="63">
       <c r="A67" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="14">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Node41_66_NV</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J67" s="8"/>
-      <c r="K67" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" spans="1:10" ht="47.25">
       <c r="A68" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="14">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Node42_67_NV</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J68" s="8"/>
-      <c r="K68" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="69">
+    </row>
+    <row r="69" spans="1:10" ht="63">
       <c r="A69" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="14">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>16</v>
@@ -6587,202 +6286,184 @@
         <v>Node42_68_V</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" ht="47.25">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="14">
+        <v>43</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f t="shared" ref="E70:E74" si="2">CONCATENATE("Node",B70,"_",A70,"_","NV")</f>
+        <v>Node43_69_NV</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" ht="63">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="14">
+        <v>43</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Node43_70_NV</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" ht="47.25">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="14">
+        <v>44</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Node44_71_NV</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" ht="63">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="14">
+        <v>44</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Node44_72_NV</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" ht="47.25">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="14">
+        <v>45</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Node45_73_NV</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G74" s="4" t="str">
+        <f t="shared" ref="G74:G75" si="3">CONCATENATE("test_",B74,"_modified.json")</f>
+        <v>test_45_modified.json</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="H69" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3">
-        <v>69.0</v>
-      </c>
-      <c r="B70" s="14">
-        <v>43.0</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="4" t="str">
-        <f t="shared" ref="E70:E74" si="3">CONCATENATE("Node",B70,"_",A70,"_","NV")</f>
-        <v>Node43_69_NV</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J70" s="8"/>
-      <c r="K70" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3">
-        <v>70.0</v>
-      </c>
-      <c r="B71" s="14">
-        <v>43.0</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Node43_70_NV</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3">
-        <v>71.0</v>
-      </c>
-      <c r="B72" s="14">
-        <v>44.0</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Node44_71_NV</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3">
-        <v>72.0</v>
-      </c>
-      <c r="B73" s="14">
-        <v>44.0</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Node44_72_NV</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3">
-        <v>73.0</v>
-      </c>
-      <c r="B74" s="14">
-        <v>45.0</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Node45_73_NV</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="G74" s="4" t="str">
-        <f t="shared" ref="G74:G75" si="4">CONCATENATE("test_",B74,"_modified.json")</f>
-        <v>test_45_modified.json</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>431</v>
-      </c>
       <c r="I74" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J74" s="8"/>
-      <c r="K74" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="75">
+    </row>
+    <row r="75" spans="1:10" ht="47.25">
       <c r="A75" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="14">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>16</v>
@@ -6792,100 +6473,91 @@
         <v>Node46_74_V</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="G75" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>test_46_modified.json</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J75" s="8"/>
-      <c r="K75" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:10" ht="47.25">
       <c r="A76" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="14">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="G76" s="4" t="str">
         <f>CONCATENATE("test_46_modifiednv.json")</f>
         <v>test_46_modifiednv.json</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J76" s="8"/>
-      <c r="K76" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="77">
+    </row>
+    <row r="77" spans="1:10" ht="47.25">
       <c r="A77" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="14">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G77" s="4" t="str">
         <f>CONCATENATE("test_",B77,"_modified.json")</f>
         <v>test_47_modified.json</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J77" s="8"/>
-      <c r="K77" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="78">
+    </row>
+    <row r="78" spans="1:10" ht="47.25">
       <c r="A78" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="14">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>16</v>
@@ -6895,174 +6567,151 @@
         <v>Node48_77_V</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="G78" s="4" t="str">
         <f>CONCATENATE("test_48_modified.json")</f>
         <v>test_48_modified.json</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J78" s="8"/>
-      <c r="K78" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="79">
+    </row>
+    <row r="79" spans="1:10" ht="47.25">
       <c r="A79" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="14">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E79" s="4" t="str">
-        <f t="shared" ref="E79:E81" si="5">CONCATENATE("Node",B79,"_",A79,"_","NV")</f>
+        <f t="shared" ref="E79:E81" si="4">CONCATENATE("Node",B79,"_",A79,"_","NV")</f>
         <v>Node48_78_NV</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>CONCATENATE("test_48_modifiednv.json")</f>
         <v>test_48_modifiednv.json</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J79" s="8"/>
-      <c r="K79" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="80">
+    </row>
+    <row r="80" spans="1:10" ht="63">
       <c r="A80" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="14">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E80" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Node49_79_NV</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" ref="G80:G81" si="5">CONCATENATE("test_",B80,"_modified.json")</f>
+        <v>test_49_modified.json</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="1:10" ht="47.25">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="14">
+        <v>50</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Node50_80_NV</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G81" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Node49_79_NV</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="G80" s="4" t="str">
-        <f t="shared" ref="G80:G81" si="6">CONCATENATE("test_",B80,"_modified.json")</f>
-        <v>test_49_modified.json</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="B81" s="14">
-        <v>50.0</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Node50_80_NV</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G81" s="4" t="str">
-        <f t="shared" si="6"/>
         <v>test_50_modified.json</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="J81" s="8"/>
-      <c r="K81" s="4" t="s">
-        <v>402</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:K81">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH(("YES"),(K3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K81">
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="YES">
-      <formula>ISERROR(SEARCH(("YES"),(K3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K80">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>"IF(D77"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="26.13"/>
-    <col customWidth="1" min="5" max="5" width="46.75"/>
-    <col customWidth="1" min="6" max="6" width="23.25"/>
-    <col customWidth="1" min="7" max="7" width="42.38"/>
-    <col customWidth="1" min="8" max="8" width="31.5"/>
+    <col min="4" max="4" width="26.1328125" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="31.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>5</v>
@@ -7071,10 +6720,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>13</v>
@@ -7082,91 +6731,87 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>CONCATENATE(A2,"Path","1")</f>
         <v>validate_tracking_codePath1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="4" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>CONCATENATE(A3,"Path","2")</f>
         <v>validate_tracking_codePath2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B4" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D4" s="19" t="str">
         <f>CONCATENATE(A4,"Path","1")</f>
         <v>tracking_code_searcherPath1</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
@@ -7185,35 +6830,31 @@
       <c r="Z4" s="23"/>
       <c r="AA4" s="23"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>CONCATENATE(A5,"Path","2")</f>
         <v>tracking_code_searcherPath2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="22" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
@@ -7232,31 +6873,31 @@
       <c r="Z5" s="23"/>
       <c r="AA5" s="23"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D6" s="4" t="str">
         <f>CONCATENATE(A6,"Path","3")</f>
         <v>tracking_code_searcherPath3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -7278,31 +6919,31 @@
       <c r="Z6" s="23"/>
       <c r="AA6" s="23"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B7" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D7" s="19" t="str">
         <f>CONCATENATE(A7,"Path","4")</f>
         <v>tracking_code_searcherPath4</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -7324,31 +6965,31 @@
       <c r="Z7" s="23"/>
       <c r="AA7" s="23"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B8" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D8" s="19" t="str">
         <f>CONCATENATE(A8,"Path","5")</f>
         <v>tracking_code_searcherPath5</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -7370,31 +7011,31 @@
       <c r="Z8" s="23"/>
       <c r="AA8" s="23"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>CONCATENATE(A9,"Path","6")</f>
         <v>tracking_code_searcherPath6</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -7416,31 +7057,31 @@
       <c r="Z9" s="23"/>
       <c r="AA9" s="23"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B10" s="26">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D10" s="26" t="str">
         <f>CONCATENATE(A10,"Path","7")</f>
         <v>tracking_code_searcherPath7</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -7462,35 +7103,37 @@
       <c r="Z10" s="23"/>
       <c r="AA10" s="23"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B11" s="26">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="D11" s="26" t="str">
         <f>CONCATENATE(A11,"Path","8")</f>
         <v>tracking_code_searcherPath8</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="23"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22" t="s">
+        <v>453</v>
+      </c>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
@@ -7508,35 +7151,37 @@
       <c r="Z11" s="23"/>
       <c r="AA11" s="23"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B12" s="18">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D12" s="19" t="str">
         <f>CONCATENATE(A12,"Path","1")</f>
         <v>hash_checkerPath1</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="G12" s="19" t="b">
-        <v>1</v>
+        <v>450</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>565</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="22" t="s">
+        <v>458</v>
+      </c>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -7554,31 +7199,31 @@
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>CONCATENATE(A13,"Path","2")</f>
         <v>hash_checkerPath2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -7600,31 +7245,31 @@
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>CONCATENATE(A14,"Path","3")</f>
         <v>hash_checkerPath3</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -7646,31 +7291,31 @@
       <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B15" s="18">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="D15" s="19" t="str">
         <f>CONCATENATE(A15,"Path","4")</f>
         <v>hash_checkerPath4</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -7692,31 +7337,31 @@
       <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B16" s="18">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D16" s="19" t="str">
         <f>CONCATENATE(A16,"Path","5")</f>
         <v>hash_checkerPath5</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="19" t="b">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>565</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -7738,31 +7383,31 @@
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="D17" s="4" t="str">
         <f>CONCATENATE(A17,"Path","6")</f>
         <v>hash_checkerPath6</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
@@ -7784,31 +7429,31 @@
       <c r="Z17" s="23"/>
       <c r="AA17" s="23"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D18" s="4" t="str">
         <f>CONCATENATE(A18,"Path","7")</f>
         <v>hash_checkerPath7</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -7830,31 +7475,31 @@
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="D19" s="4" t="str">
         <f>CONCATENATE(A19,"Path","8")</f>
         <v>hash_checkerPath8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -7876,31 +7521,31 @@
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B20" s="29">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D20" s="26" t="str">
         <f>CONCATENATE(A20,"Path","9")</f>
         <v>hash_checkerPath9</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="G20" s="26" t="b">
-        <v>1</v>
+        <v>450</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>565</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -7922,31 +7567,31 @@
       <c r="Z20" s="23"/>
       <c r="AA20" s="23"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B21" s="29">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="D21" s="26" t="str">
         <f>CONCATENATE(A21,"Path","10")</f>
         <v>hash_checkerPath10</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="G21" s="26" t="b">
-        <v>1</v>
+        <v>450</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>565</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
@@ -7968,31 +7613,31 @@
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D22" s="4" t="str">
         <f>CONCATENATE(A22,"Path","1")</f>
         <v>deliver_productPath1</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="4" t="b">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
@@ -8014,31 +7659,31 @@
       <c r="Z22" s="23"/>
       <c r="AA22" s="23"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D23" s="4" t="str">
         <f>CONCATENATE(A23,"Path","2")</f>
         <v>deliver_productPath2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -8060,7 +7705,7 @@
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8089,7 +7734,7 @@
       <c r="Z24" s="23"/>
       <c r="AA24" s="23"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8118,7 +7763,7 @@
       <c r="Z25" s="23"/>
       <c r="AA25" s="23"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -8147,7 +7792,7 @@
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -8176,7 +7821,7 @@
       <c r="Z27" s="23"/>
       <c r="AA27" s="23"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -8205,7 +7850,7 @@
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -8234,7 +7879,7 @@
       <c r="Z29" s="23"/>
       <c r="AA29" s="23"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -8263,7 +7908,7 @@
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -8292,7 +7937,7 @@
       <c r="Z31" s="23"/>
       <c r="AA31" s="23"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -8321,7 +7966,7 @@
       <c r="Z32" s="23"/>
       <c r="AA32" s="23"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -8350,7 +7995,7 @@
       <c r="Z33" s="23"/>
       <c r="AA33" s="23"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -8379,7 +8024,7 @@
       <c r="Z34" s="23"/>
       <c r="AA34" s="23"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:27">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -8408,7 +8053,7 @@
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:27">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -8420,7 +8065,7 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:27">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8432,7 +8077,7 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:27">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8444,7 +8089,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:27">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8456,7 +8101,7 @@
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:27">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8468,7 +8113,7 @@
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:27">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8480,7 +8125,7 @@
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:27">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8492,7 +8137,7 @@
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:27">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8504,7 +8149,7 @@
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:27" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -8516,7 +8161,7 @@
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:27" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -8528,7 +8173,7 @@
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:27" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -8540,7 +8185,7 @@
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:27" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -8552,7 +8197,7 @@
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:27" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -8565,41 +8210,42 @@
       <c r="J48" s="17"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.0"/>
-    <col customWidth="1" min="2" max="2" width="7.88"/>
-    <col customWidth="1" min="3" max="3" width="10.75"/>
-    <col customWidth="1" min="4" max="4" width="15.25"/>
-    <col customWidth="1" min="5" max="5" width="13.63"/>
-    <col customWidth="1" min="6" max="6" width="14.38"/>
-    <col customWidth="1" min="7" max="7" width="34.0"/>
-    <col customWidth="1" min="8" max="8" width="20.25"/>
-    <col customWidth="1" min="9" max="9" width="11.88"/>
-    <col customWidth="1" min="10" max="10" width="48.0"/>
-    <col customWidth="1" min="11" max="11" width="17.75"/>
-    <col customWidth="1" min="12" max="12" width="21.38"/>
-    <col customWidth="1" min="13" max="13" width="88.63"/>
-    <col customWidth="1" min="14" max="14" width="13.75"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="20.265625" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" customWidth="1"/>
+    <col min="10" max="10" width="48" customWidth="1"/>
+    <col min="11" max="11" width="17.73046875" customWidth="1"/>
+    <col min="12" max="12" width="21.3984375" customWidth="1"/>
+    <col min="13" max="13" width="88.59765625" customWidth="1"/>
+    <col min="14" max="14" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8643,7 +8289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -8658,7 +8304,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>18</v>
@@ -8683,7 +8329,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -8699,7 +8345,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8727,7 +8373,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -8755,7 +8401,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -8783,7 +8429,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -8811,7 +8457,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8839,7 +8485,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -8855,7 +8501,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -8870,7 +8516,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
@@ -8895,7 +8541,7 @@
       </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -8910,7 +8556,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>40</v>
@@ -8935,7 +8581,7 @@
       </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -8950,7 +8596,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>49</v>
@@ -8975,7 +8621,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -8990,7 +8636,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>49</v>
@@ -9015,7 +8661,7 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -9030,7 +8676,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>53</v>
@@ -9055,7 +8701,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -9070,16 +8716,16 @@
         <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="7">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>21</v>
@@ -9095,7 +8741,7 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -9110,7 +8756,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>62</v>
@@ -9135,7 +8781,7 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>14</v>
@@ -9150,7 +8796,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>64</v>
@@ -9175,7 +8821,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -9190,7 +8836,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>67</v>
@@ -9215,7 +8861,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -9230,7 +8876,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>69</v>
@@ -9255,7 +8901,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
@@ -9270,10 +8916,10 @@
         <v>25</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>19</v>
@@ -9282,7 +8928,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="7">
-        <v>1.2345678E7</v>
+        <v>12345678</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>22</v>
@@ -9295,7 +8941,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>14</v>
@@ -9310,7 +8956,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>76</v>
@@ -9335,7 +8981,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>14</v>
@@ -9350,7 +8996,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>80</v>
@@ -9375,7 +9021,7 @@
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
@@ -9390,10 +9036,10 @@
         <v>25</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>19</v>
@@ -9415,7 +9061,7 @@
       </c>
       <c r="N23" s="8"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>14</v>
@@ -9430,10 +9076,10 @@
         <v>25</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
@@ -9445,17 +9091,17 @@
         <v>21</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>14</v>
@@ -9467,13 +9113,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>19</v>
@@ -9485,23 +9131,23 @@
         <v>21</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="N25" s="8"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>10</v>
@@ -9510,10 +9156,10 @@
         <v>25</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>19</v>
@@ -9525,23 +9171,23 @@
         <v>21</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N26" s="8"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
@@ -9550,10 +9196,10 @@
         <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>19</v>
@@ -9565,23 +9211,23 @@
         <v>21</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
@@ -9590,10 +9236,10 @@
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>19</v>
@@ -9615,7 +9261,7 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -9630,7 +9276,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>18</v>
@@ -9655,7 +9301,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>14</v>
@@ -9670,10 +9316,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>19</v>
@@ -9688,14 +9334,14 @@
         <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -9710,10 +9356,10 @@
         <v>25</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>19</v>
@@ -9728,14 +9374,14 @@
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
         <v>14</v>
@@ -9750,10 +9396,10 @@
         <v>25</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>19</v>
@@ -9768,14 +9414,14 @@
         <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>14</v>
@@ -9790,10 +9436,10 @@
         <v>25</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>19</v>
@@ -9808,14 +9454,14 @@
         <v>22</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>14</v>
@@ -9830,10 +9476,10 @@
         <v>25</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>19</v>
@@ -9848,14 +9494,14 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>14</v>
@@ -9870,10 +9516,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>19</v>
@@ -9888,14 +9534,14 @@
         <v>22</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>14</v>
@@ -9910,10 +9556,10 @@
         <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>19</v>
@@ -9928,13 +9574,13 @@
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>14</v>
@@ -9949,10 +9595,10 @@
         <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>19</v>
@@ -9967,13 +9613,13 @@
         <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>14</v>
@@ -9988,10 +9634,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>19</v>
@@ -10012,13 +9658,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>9</v>
@@ -10027,7 +9673,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>85</v>
@@ -10049,13 +9695,13 @@
       </c>
       <c r="M39" s="8"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
@@ -10064,10 +9710,10 @@
         <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>19</v>
@@ -10076,7 +9722,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>22</v>
@@ -10087,13 +9733,13 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -10102,10 +9748,10 @@
         <v>16</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>19</v>
@@ -10114,7 +9760,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>22</v>
@@ -10125,13 +9771,13 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:14">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -10140,10 +9786,10 @@
         <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>19</v>
@@ -10152,7 +9798,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>22</v>
@@ -10163,31 +9809,31 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:14">
       <c r="N43" s="8"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:14">
       <c r="N44" s="8"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:14">
       <c r="N45" s="8"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:14">
       <c r="N46" s="8"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:14">
       <c r="N47" s="8"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:14">
       <c r="N48" s="8"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:14">
       <c r="N49" s="8"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:14">
       <c r="N50" s="8"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:14">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -10203,7 +9849,7 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:14">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -10219,25 +9865,25 @@
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:14">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>19</v>
@@ -10255,29 +9901,29 @@
         <v>23</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="N54" s="30"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:14">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>19</v>
@@ -10295,32 +9941,32 @@
         <v>23</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="N55" s="8"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:14">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>20</v>
@@ -10335,29 +9981,29 @@
         <v>23</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="N56" s="8"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:14">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>19</v>
@@ -10375,11 +10021,11 @@
         <v>23</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="N57" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
+++ b/docs/GE3_TestCasesTemplate_2023_v1.0.xlsx
@@ -1,44 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5363B4-72FF-40DB-BEC1-705B55F1D2B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Function1" sheetId="1" r:id="rId1"/>
-    <sheet name="Function2" sheetId="2" r:id="rId2"/>
-    <sheet name="Function 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Copia de Hoja 1" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet state="visible" name="Function1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Function2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Function 3" sheetId="3" r:id="rId6"/>
+    <sheet state="hidden" name="Copia de Hoja 1" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment authorId="0" ref="A8">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Light Blue rows are also for Loop testcases</t>
-        </r>
+        <t xml:space="preserve">Light Blue rows are also for Loop testcases</t>
       </text>
     </comment>
   </commentList>
@@ -46,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="566">
   <si>
     <t>#</t>
   </si>
@@ -859,9 +842,6 @@
     <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail":: "example@inf.uc3m.es"}</t>
   </si>
   <si>
-    <t>Same as 11_duplicated</t>
-  </si>
-  <si>
     <t>Node 15 deleted</t>
   </si>
   <si>
@@ -941,9 +921,6 @@
   "ContactEmail": "example@inf.uc3m.es"}</t>
   </si>
   <si>
-    <t>Same as 16_duplicated</t>
-  </si>
-  <si>
     <t>Node 19 modified</t>
   </si>
   <si>
@@ -1073,6 +1050,9 @@
     <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "ContactEmail"= "example@inf.uc3m.es"}</t>
   </si>
   <si>
+    <t>Same as 19_duplicated</t>
+  </si>
+  <si>
     <t>Node 27 deleted</t>
   </si>
   <si>
@@ -1154,6 +1134,9 @@
     <t>{"OrderID=: "e01521684a7f9535e9fa098a2b86565f", "ContactEmail": "example@inf.uc3m.es"}</t>
   </si>
   <si>
+    <t>Same as 30_modified</t>
+  </si>
+  <si>
     <t>Node 33 modified</t>
   </si>
   <si>
@@ -1184,13 +1167,16 @@
     <t>Node 36 modified</t>
   </si>
   <si>
+    <t>test_36_modified.json</t>
+  </si>
+  <si>
+    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", =ContactEmail": "example@inf.uc3m.es"}</t>
+  </si>
+  <si>
+    <t>Node 37 modified</t>
+  </si>
+  <si>
     <t>test_37_modified.json</t>
-  </si>
-  <si>
-    <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", =ContactEmail": "example@inf.uc3m.es"}</t>
-  </si>
-  <si>
-    <t>Node 37 modified</t>
   </si>
   <si>
     <t>{"OrderID": "e01521684a7f9535e9fa098a2b86565f", "$": "example@inf.uc3m.es"}</t>
@@ -1771,76 +1757,65 @@
   <si>
     <t>CE_NV_40</t>
   </si>
-  <si>
-    <t>True</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="10">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF067D17"/>
       <name val="&quot;JetBrains Mono&quot;"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF008000"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1848,7 +1823,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1900,85 +1875,129 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="31">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2168,42 +2187,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="8" max="8" width="20.265625" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" customWidth="1"/>
-    <col min="10" max="10" width="48" customWidth="1"/>
-    <col min="11" max="11" width="17.73046875" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="13" width="88.59765625" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="3.0"/>
+    <col customWidth="1" min="2" max="2" width="7.88"/>
+    <col customWidth="1" min="3" max="3" width="10.75"/>
+    <col customWidth="1" min="4" max="4" width="15.25"/>
+    <col customWidth="1" min="5" max="5" width="13.63"/>
+    <col customWidth="1" min="6" max="6" width="14.38"/>
+    <col customWidth="1" min="7" max="7" width="34.0"/>
+    <col customWidth="1" min="8" max="8" width="20.25"/>
+    <col customWidth="1" min="9" max="9" width="11.88"/>
+    <col customWidth="1" min="10" max="10" width="48.0"/>
+    <col customWidth="1" min="11" max="11" width="17.75"/>
+    <col customWidth="1" min="12" max="12" width="10.63"/>
+    <col customWidth="1" min="13" max="13" width="88.63"/>
+    <col customWidth="1" min="14" max="14" width="13.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2247,9 +2263,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -2289,9 +2305,9 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -2331,9 +2347,9 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2373,9 +2389,9 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -2415,9 +2431,9 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -2457,9 +2473,9 @@
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -2499,9 +2515,9 @@
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
@@ -2539,9 +2555,9 @@
       </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -2581,9 +2597,9 @@
       </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -2623,9 +2639,9 @@
       </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -2665,9 +2681,9 @@
       </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -2707,9 +2723,9 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -2747,9 +2763,9 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -2789,9 +2805,9 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -2831,9 +2847,9 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -2873,9 +2889,9 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
@@ -2915,9 +2931,9 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -2955,9 +2971,9 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -2997,9 +3013,9 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
@@ -3039,9 +3055,9 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>83</v>
@@ -3081,9 +3097,9 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>83</v>
@@ -3123,9 +3139,9 @@
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>83</v>
@@ -3165,9 +3181,9 @@
       </c>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>83</v>
@@ -3207,9 +3223,9 @@
       </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
@@ -3249,9 +3265,9 @@
       </c>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -3289,9 +3305,9 @@
       </c>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
@@ -3331,9 +3347,9 @@
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
@@ -3373,9 +3389,9 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -3415,9 +3431,9 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>14</v>
@@ -3457,9 +3473,9 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -3499,9 +3515,9 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>14</v>
@@ -3541,9 +3557,9 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
@@ -3583,9 +3599,9 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
@@ -3625,9 +3641,9 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>14</v>
@@ -3667,9 +3683,9 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>14</v>
@@ -3707,9 +3723,9 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>14</v>
@@ -3749,9 +3765,9 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>14</v>
@@ -3790,9 +3806,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>14</v>
@@ -3831,9 +3847,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>14</v>
@@ -3872,9 +3888,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>14</v>
@@ -3913,9 +3929,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>154</v>
@@ -3954,9 +3970,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>154</v>
@@ -3995,9 +4011,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>154</v>
@@ -4036,9 +4052,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>154</v>
@@ -4077,9 +4093,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>154</v>
@@ -4119,33 +4135,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="12.73046875" customWidth="1"/>
-    <col min="5" max="5" width="18.59765625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="21.46484375" customWidth="1"/>
-    <col min="8" max="8" width="37.86328125" customWidth="1"/>
-    <col min="9" max="9" width="63.1328125" customWidth="1"/>
-    <col min="10" max="10" width="19.59765625" customWidth="1"/>
+    <col customWidth="1" min="4" max="4" width="12.75"/>
+    <col customWidth="1" min="5" max="5" width="18.63"/>
+    <col customWidth="1" min="6" max="6" width="19.0"/>
+    <col customWidth="1" min="7" max="7" width="21.5"/>
+    <col customWidth="1" min="8" max="8" width="37.88"/>
+    <col customWidth="1" min="9" max="9" width="63.13"/>
+    <col customWidth="1" min="10" max="10" width="19.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4177,12 +4190,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>176</v>
@@ -4207,12 +4220,12 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>182</v>
@@ -4237,12 +4250,12 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
@@ -4267,12 +4280,12 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
@@ -4297,12 +4310,12 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
@@ -4327,12 +4340,12 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
@@ -4357,12 +4370,12 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
@@ -4387,12 +4400,12 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>176</v>
@@ -4417,12 +4430,12 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="4">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
@@ -4447,12 +4460,12 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="4">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
@@ -4477,12 +4490,12 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="4">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
@@ -4507,12 +4520,12 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="4">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>182</v>
@@ -4537,12 +4550,12 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="4">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
@@ -4567,12 +4580,12 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="4">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>176</v>
@@ -4596,15 +4609,13 @@
         <v>187</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="L15" s="13"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="16">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="4">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>182</v>
@@ -4628,15 +4639,13 @@
         <v>187</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="L16" s="13"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="17">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="4">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>182</v>
@@ -4660,15 +4669,13 @@
         <v>187</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="L17" s="13"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="18">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="4">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>182</v>
@@ -4692,15 +4699,13 @@
         <v>187</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="L18" s="13"/>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="19">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="4">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>182</v>
@@ -4724,15 +4729,13 @@
         <v>187</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="L19" s="13"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="20">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="4">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>182</v>
@@ -4741,7 +4744,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" ref="E20:E64" si="0">CONCATENATE("Node",B20,"_",A20,"_","NV")</f>
+        <f t="shared" ref="E20:E64" si="1">CONCATENATE("Node",B20,"_",A20,"_","NV")</f>
         <v>Node12_19_NV</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -4757,15 +4760,13 @@
         <v>187</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="L20" s="13"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="21">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="4">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>182</v>
@@ -4774,7 +4775,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node12_20_NV</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -4790,15 +4791,13 @@
         <v>187</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="L21" s="13"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="22">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="4">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>182</v>
@@ -4807,7 +4806,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node13_21_NV</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -4823,14 +4822,13 @@
         <v>187</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="23">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="4">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
@@ -4839,7 +4837,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node13_22_NV</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -4855,14 +4853,14 @@
         <v>187</v>
       </c>
       <c r="J23" s="8"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="4">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>182</v>
@@ -4871,7 +4869,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node14_23_NV</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -4888,12 +4886,12 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="4">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>182</v>
@@ -4902,7 +4900,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node14_24_NV</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -4917,16 +4915,14 @@
       <c r="I25" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="4">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>182</v>
@@ -4935,29 +4931,29 @@
         <v>25</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node15_25_NV</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="4">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
@@ -4966,29 +4962,29 @@
         <v>25</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node15_26_NV</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>276</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="4">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>182</v>
@@ -4997,29 +4993,29 @@
         <v>25</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node16_27_NV</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>279</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="4">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>182</v>
@@ -5028,29 +5024,29 @@
         <v>25</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node16_28_NV</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="12" t="s">
         <v>281</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="4">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>182</v>
@@ -5059,29 +5055,29 @@
         <v>25</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node17_29_NV</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="4">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
@@ -5090,29 +5086,29 @@
         <v>25</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node17_30_NV</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>288</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="4">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>182</v>
@@ -5121,29 +5117,29 @@
         <v>25</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node18_31_NV</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>291</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="4">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>182</v>
@@ -5152,31 +5148,29 @@
         <v>25</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node18_32_NV</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="4">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>176</v>
@@ -5185,29 +5179,29 @@
         <v>25</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node19_33_NV</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="63">
+    <row r="35">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="4">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>182</v>
@@ -5216,29 +5210,29 @@
         <v>25</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node20_34_NV</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="63">
+    <row r="36">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="4">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>182</v>
@@ -5247,31 +5241,29 @@
         <v>25</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node20_35_NV</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="31.5">
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="4">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>182</v>
@@ -5280,29 +5272,29 @@
         <v>25</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node21_36_NV</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="63">
+    <row r="38">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="4">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>182</v>
@@ -5311,29 +5303,29 @@
         <v>25</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node21_37_NV</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="47.25">
+    <row r="39">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="4">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>182</v>
@@ -5342,29 +5334,29 @@
         <v>25</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node22_38_NV</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="47.25">
+    <row r="40">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="4">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>182</v>
@@ -5373,31 +5365,29 @@
         <v>25</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node22_39_NV</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>314</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>316</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="47.25">
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="4">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>182</v>
@@ -5406,29 +5396,29 @@
         <v>25</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node23_40_NV</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="63">
+    <row r="42">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="4">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>182</v>
@@ -5437,31 +5427,29 @@
         <v>25</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node23_41_NV</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>322</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="47.25">
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="8">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>182</v>
@@ -5470,29 +5458,29 @@
         <v>25</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node24_42_NV</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>323</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="63">
+    <row r="44">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="14">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>182</v>
@@ -5501,29 +5489,29 @@
         <v>25</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node24_43_NV</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>326</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>328</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="47.25">
+    <row r="45">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="14">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>182</v>
@@ -5532,29 +5520,29 @@
         <v>25</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node25_44_NV</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>329</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>331</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="63">
+    <row r="46">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="14">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>182</v>
@@ -5563,31 +5551,29 @@
         <v>25</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node25_45_NV</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>334</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="63">
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="B47" s="14">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>176</v>
@@ -5596,29 +5582,31 @@
         <v>25</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node26_46_NV</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" ht="47.25">
+      <c r="J47" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="14">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>182</v>
@@ -5627,29 +5615,29 @@
         <v>25</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node27_47_NV</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="63">
+    <row r="49">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="14">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>182</v>
@@ -5658,31 +5646,29 @@
         <v>25</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node27_48_NV</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>343</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="47.25">
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="14">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>182</v>
@@ -5691,29 +5677,29 @@
         <v>25</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node28_49_NV</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>346</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="78.75">
+    <row r="51">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="14">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>182</v>
@@ -5722,29 +5708,29 @@
         <v>25</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node28_50_NV</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="47.25">
+    <row r="52">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="14">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>182</v>
@@ -5753,29 +5739,29 @@
         <v>25</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node29_51_NV</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>352</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" ht="63">
+    <row r="53">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="14">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>182</v>
@@ -5784,31 +5770,29 @@
         <v>25</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node29_52_NV</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="47.25">
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="14">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>176</v>
@@ -5817,29 +5801,29 @@
         <v>25</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node30_53_NV</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>358</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" ht="47.25">
+    <row r="55">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="14">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>176</v>
@@ -5848,29 +5832,29 @@
         <v>25</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node31_54_NV</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>361</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" ht="47.25">
+    <row r="56">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="14">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>176</v>
@@ -5879,29 +5863,31 @@
         <v>25</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node32_55_NV</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" ht="47.25">
+      <c r="J56" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="14">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>176</v>
@@ -5910,7 +5896,7 @@
         <v>25</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node33_56_NV</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -5925,14 +5911,16 @@
       <c r="I57" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" ht="31.5">
+      <c r="J57" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="B58" s="14">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>176</v>
@@ -5941,7 +5929,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node34_57_NV</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -5958,12 +5946,12 @@
       </c>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" ht="47.25">
+    <row r="59">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="14">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>176</v>
@@ -5972,7 +5960,7 @@
         <v>25</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node35_58_NV</v>
       </c>
       <c r="F59" s="15" t="s">
@@ -5987,14 +5975,16 @@
       <c r="I59" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" ht="47.25">
+      <c r="J59" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="B60" s="14">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>176</v>
@@ -6003,7 +5993,7 @@
         <v>25</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node36_59_NV</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -6018,14 +6008,17 @@
       <c r="I60" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="1:10" ht="47.25">
+      <c r="J60" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="B61" s="14">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>176</v>
@@ -6034,29 +6027,29 @@
         <v>25</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node37_60_NV</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>377</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="1:10" ht="47.25">
+    <row r="62">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="B62" s="14">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>176</v>
@@ -6065,29 +6058,31 @@
         <v>25</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node38_61_NV</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="1:10" ht="47.25">
+      <c r="J62" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="B63" s="14">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>176</v>
@@ -6096,29 +6091,31 @@
         <v>25</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node39_62_NV</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:10" ht="47.25">
+      <c r="J63" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="B64" s="14">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>182</v>
@@ -6127,29 +6124,29 @@
         <v>25</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Node40_63_NV</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="1:10" ht="63">
+    <row r="65">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="B65" s="14">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>182</v>
@@ -6162,25 +6159,27 @@
         <v>Node40_64_V</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="1:10" ht="47.25">
+      <c r="J65" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="B66" s="14">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>182</v>
@@ -6189,29 +6188,29 @@
         <v>25</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" ref="E66:E68" si="1">CONCATENATE("Node",B66,"_",A66,"_","NV")</f>
+        <f t="shared" ref="E66:E68" si="2">CONCATENATE("Node",B66,"_",A66,"_","NV")</f>
         <v>Node41_65_NV</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" ht="63">
+    <row r="67">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="B67" s="14">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>182</v>
@@ -6220,29 +6219,29 @@
         <v>25</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Node41_66_NV</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="1:10" ht="47.25">
+    <row r="68">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="B68" s="14">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>182</v>
@@ -6251,29 +6250,29 @@
         <v>25</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Node42_67_NV</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="1:10" ht="63">
+    <row r="69">
       <c r="A69" s="3">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="B69" s="14">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>182</v>
@@ -6286,25 +6285,25 @@
         <v>Node42_68_V</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>181</v>
       </c>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" ht="47.25">
+    <row r="70">
       <c r="A70" s="3">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="B70" s="14">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>182</v>
@@ -6313,29 +6312,29 @@
         <v>25</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" ref="E70:E74" si="2">CONCATENATE("Node",B70,"_",A70,"_","NV")</f>
+        <f t="shared" ref="E70:E74" si="3">CONCATENATE("Node",B70,"_",A70,"_","NV")</f>
         <v>Node43_69_NV</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="1:10" ht="63">
+    <row r="71">
       <c r="A71" s="3">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="B71" s="14">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>182</v>
@@ -6344,29 +6343,29 @@
         <v>25</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Node43_70_NV</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="1:10" ht="47.25">
+    <row r="72">
       <c r="A72" s="3">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="B72" s="14">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>182</v>
@@ -6375,29 +6374,29 @@
         <v>25</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Node44_71_NV</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="1:10" ht="63">
+    <row r="73">
       <c r="A73" s="3">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="B73" s="14">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>182</v>
@@ -6406,29 +6405,29 @@
         <v>25</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Node44_72_NV</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="1:10" ht="47.25">
+    <row r="74">
       <c r="A74" s="3">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="B74" s="14">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>176</v>
@@ -6437,30 +6436,32 @@
         <v>25</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Node45_73_NV</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f t="shared" ref="G74:G75" si="3">CONCATENATE("test_",B74,"_modified.json")</f>
+        <f t="shared" ref="G74:G75" si="4">CONCATENATE("test_",B74,"_modified.json")</f>
         <v>test_45_modified.json</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="1:10" ht="47.25">
+      <c r="J74" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="3">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="B75" s="14">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>176</v>
@@ -6473,26 +6474,26 @@
         <v>Node46_74_V</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G75" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>test_46_modified.json</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>181</v>
       </c>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="1:10" ht="47.25">
+    <row r="76">
       <c r="A76" s="3">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="B76" s="14">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>176</v>
@@ -6501,29 +6502,29 @@
         <v>25</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G76" s="4" t="str">
         <f>CONCATENATE("test_46_modifiednv.json")</f>
         <v>test_46_modifiednv.json</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="1:10" ht="47.25">
+    <row r="77">
       <c r="A77" s="3">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="B77" s="14">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>176</v>
@@ -6532,29 +6533,29 @@
         <v>25</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G77" s="4" t="str">
         <f>CONCATENATE("test_",B77,"_modified.json")</f>
         <v>test_47_modified.json</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="1:10" ht="47.25">
+    <row r="78">
       <c r="A78" s="3">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="B78" s="14">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>176</v>
@@ -6567,26 +6568,26 @@
         <v>Node48_77_V</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G78" s="4" t="str">
         <f>CONCATENATE("test_48_modified.json")</f>
         <v>test_48_modified.json</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>181</v>
       </c>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" ht="47.25">
+    <row r="79">
       <c r="A79" s="3">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="B79" s="14">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>176</v>
@@ -6595,30 +6596,30 @@
         <v>25</v>
       </c>
       <c r="E79" s="4" t="str">
-        <f t="shared" ref="E79:E81" si="4">CONCATENATE("Node",B79,"_",A79,"_","NV")</f>
+        <f t="shared" ref="E79:E81" si="5">CONCATENATE("Node",B79,"_",A79,"_","NV")</f>
         <v>Node48_78_NV</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>CONCATENATE("test_48_modifiednv.json")</f>
         <v>test_48_modifiednv.json</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>187</v>
       </c>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" ht="63">
+    <row r="80">
       <c r="A80" s="3">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="B80" s="14">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>176</v>
@@ -6627,30 +6628,30 @@
         <v>25</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Node49_79_NV</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G80" s="4" t="str">
-        <f t="shared" ref="G80:G81" si="5">CONCATENATE("test_",B80,"_modified.json")</f>
+        <f t="shared" ref="G80:G81" si="6">CONCATENATE("test_",B80,"_modified.json")</f>
         <v>test_49_modified.json</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" ht="47.25">
+    <row r="81">
       <c r="A81" s="3">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="B81" s="14">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>176</v>
@@ -6659,159 +6660,159 @@
         <v>25</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Node50_80_NV</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G81" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>test_50_modified.json</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J81" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="26.1328125" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" customWidth="1"/>
-    <col min="7" max="7" width="42.3984375" customWidth="1"/>
-    <col min="8" max="8" width="31.46484375" customWidth="1"/>
+    <col customWidth="1" min="4" max="4" width="26.13"/>
+    <col customWidth="1" min="5" max="5" width="46.75"/>
+    <col customWidth="1" min="6" max="6" width="23.25"/>
+    <col customWidth="1" min="7" max="7" width="42.38"/>
+    <col customWidth="1" min="8" max="8" width="31.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1">
+      <c r="A1" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>CONCATENATE(A2,"Path","1")</f>
         <v>validate_tracking_codePath1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>181</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+        <v>442</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3">
       <c r="A3" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>CONCATENATE(A3,"Path","2")</f>
         <v>validate_tracking_codePath2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="18">
-        <v>3</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="B4" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="20" t="str">
         <f>CONCATENATE(A4,"Path","1")</f>
         <v>tracking_code_searcherPath1</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>452</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
@@ -6830,31 +6831,35 @@
       <c r="Z4" s="23"/>
       <c r="AA4" s="23"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>CONCATENATE(A5,"Path","2")</f>
         <v>tracking_code_searcherPath2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>181</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
@@ -6873,31 +6878,31 @@
       <c r="Z5" s="23"/>
       <c r="AA5" s="23"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D6" s="4" t="str">
         <f>CONCATENATE(A6,"Path","3")</f>
         <v>tracking_code_searcherPath3</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>181</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -6919,31 +6924,31 @@
       <c r="Z6" s="23"/>
       <c r="AA6" s="23"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="B7" s="18">
-        <v>6</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="D7" s="19" t="str">
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D7" s="20" t="str">
         <f>CONCATENATE(A7,"Path","4")</f>
         <v>tracking_code_searcherPath4</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="20" t="s">
         <v>467</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>468</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -6965,31 +6970,31 @@
       <c r="Z7" s="23"/>
       <c r="AA7" s="23"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="B8" s="18">
-        <v>7</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D8" s="19" t="str">
+    <row r="8">
+      <c r="A8" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="20" t="str">
         <f>CONCATENATE(A8,"Path","5")</f>
         <v>tracking_code_searcherPath5</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>471</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>472</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -7011,31 +7016,31 @@
       <c r="Z8" s="23"/>
       <c r="AA8" s="23"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B9" s="3">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>CONCATENATE(A9,"Path","6")</f>
         <v>tracking_code_searcherPath6</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -7057,31 +7062,31 @@
       <c r="Z9" s="23"/>
       <c r="AA9" s="23"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="26" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B10" s="26">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D10" s="26" t="str">
         <f>CONCATENATE(A10,"Path","7")</f>
         <v>tracking_code_searcherPath7</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -7103,37 +7108,35 @@
       <c r="Z10" s="23"/>
       <c r="AA10" s="23"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="26" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B11" s="26">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D11" s="26" t="str">
         <f>CONCATENATE(A11,"Path","8")</f>
         <v>tracking_code_searcherPath8</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22" t="s">
-        <v>453</v>
-      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
@@ -7151,37 +7154,35 @@
       <c r="Z11" s="23"/>
       <c r="AA11" s="23"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="B12" s="18">
-        <v>11</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    <row r="12">
+      <c r="A12" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="D12" s="19" t="str">
+      <c r="B12" s="19">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="20" t="str">
         <f>CONCATENATE(A12,"Path","1")</f>
         <v>hash_checkerPath1</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>485</v>
       </c>
+      <c r="F12" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="G12" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>486</v>
+      </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22" t="s">
-        <v>458</v>
-      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -7199,31 +7200,31 @@
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B13" s="3">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>CONCATENATE(A13,"Path","2")</f>
         <v>hash_checkerPath2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>181</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -7245,31 +7246,31 @@
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B14" s="3">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>CONCATENATE(A14,"Path","3")</f>
         <v>hash_checkerPath3</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>181</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -7291,31 +7292,31 @@
       <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="B15" s="18">
-        <v>14</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="D15" s="19" t="str">
+    <row r="15">
+      <c r="A15" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B15" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="D15" s="20" t="str">
         <f>CONCATENATE(A15,"Path","4")</f>
         <v>hash_checkerPath4</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="H15" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>492</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>493</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -7337,31 +7338,31 @@
       <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="B16" s="18">
-        <v>15</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="D16" s="19" t="str">
+    <row r="16">
+      <c r="A16" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D16" s="20" t="str">
         <f>CONCATENATE(A16,"Path","5")</f>
         <v>hash_checkerPath5</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>485</v>
+      <c r="G16" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>486</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -7383,31 +7384,31 @@
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B17" s="3">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D17" s="4" t="str">
         <f>CONCATENATE(A17,"Path","6")</f>
         <v>hash_checkerPath6</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>181</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
@@ -7429,31 +7430,31 @@
       <c r="Z17" s="23"/>
       <c r="AA17" s="23"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B18" s="3">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D18" s="4" t="str">
         <f>CONCATENATE(A18,"Path","7")</f>
         <v>hash_checkerPath7</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>565</v>
+        <v>499</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -7475,31 +7476,31 @@
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B19" s="3">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D19" s="4" t="str">
         <f>CONCATENATE(A19,"Path","8")</f>
         <v>hash_checkerPath8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -7521,31 +7522,31 @@
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="26" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B20" s="29">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D20" s="26" t="str">
         <f>CONCATENATE(A20,"Path","9")</f>
         <v>hash_checkerPath9</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>565</v>
+        <v>451</v>
+      </c>
+      <c r="G20" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -7567,31 +7568,31 @@
       <c r="Z20" s="23"/>
       <c r="AA20" s="23"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="26" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B21" s="29">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D21" s="26" t="str">
         <f>CONCATENATE(A21,"Path","10")</f>
         <v>hash_checkerPath10</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>565</v>
+        <v>451</v>
+      </c>
+      <c r="G21" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
@@ -7613,31 +7614,31 @@
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B22" s="3">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D22" s="4" t="str">
         <f>CONCATENATE(A22,"Path","1")</f>
         <v>deliver_productPath1</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>565</v>
+      <c r="G22" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
@@ -7659,31 +7660,31 @@
       <c r="Z22" s="23"/>
       <c r="AA22" s="23"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B23" s="3">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D23" s="4" t="str">
         <f>CONCATENATE(A23,"Path","2")</f>
         <v>deliver_productPath2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>181</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -7705,7 +7706,7 @@
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7734,7 +7735,7 @@
       <c r="Z24" s="23"/>
       <c r="AA24" s="23"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7763,7 +7764,7 @@
       <c r="Z25" s="23"/>
       <c r="AA25" s="23"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -7792,7 +7793,7 @@
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -7821,7 +7822,7 @@
       <c r="Z27" s="23"/>
       <c r="AA27" s="23"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -7850,7 +7851,7 @@
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -7879,7 +7880,7 @@
       <c r="Z29" s="23"/>
       <c r="AA29" s="23"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -7908,7 +7909,7 @@
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -7937,7 +7938,7 @@
       <c r="Z31" s="23"/>
       <c r="AA31" s="23"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -7966,7 +7967,7 @@
       <c r="Z32" s="23"/>
       <c r="AA32" s="23"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -7995,7 +7996,7 @@
       <c r="Z33" s="23"/>
       <c r="AA33" s="23"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -8024,7 +8025,7 @@
       <c r="Z34" s="23"/>
       <c r="AA34" s="23"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -8053,7 +8054,7 @@
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -8062,10 +8063,10 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8074,10 +8075,10 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8086,10 +8087,10 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8098,10 +8099,10 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8110,10 +8111,10 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8122,10 +8123,10 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8134,10 +8135,10 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8146,106 +8147,105 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="1:27" ht="15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="1:27" ht="15">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="1:27" ht="15">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:27" ht="15">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:27" ht="15">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="8" max="8" width="20.265625" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" customWidth="1"/>
-    <col min="10" max="10" width="48" customWidth="1"/>
-    <col min="11" max="11" width="17.73046875" customWidth="1"/>
-    <col min="12" max="12" width="21.3984375" customWidth="1"/>
-    <col min="13" max="13" width="88.59765625" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="3.0"/>
+    <col customWidth="1" min="2" max="2" width="7.88"/>
+    <col customWidth="1" min="3" max="3" width="10.75"/>
+    <col customWidth="1" min="4" max="4" width="15.25"/>
+    <col customWidth="1" min="5" max="5" width="13.63"/>
+    <col customWidth="1" min="6" max="6" width="14.38"/>
+    <col customWidth="1" min="7" max="7" width="34.0"/>
+    <col customWidth="1" min="8" max="8" width="20.25"/>
+    <col customWidth="1" min="9" max="9" width="11.88"/>
+    <col customWidth="1" min="10" max="10" width="48.0"/>
+    <col customWidth="1" min="11" max="11" width="17.75"/>
+    <col customWidth="1" min="12" max="12" width="21.38"/>
+    <col customWidth="1" min="13" max="13" width="88.63"/>
+    <col customWidth="1" min="14" max="14" width="13.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -8304,7 +8304,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>18</v>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -8345,7 +8345,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8373,7 +8373,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -8401,7 +8401,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -8429,7 +8429,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -8457,7 +8457,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8485,7 +8485,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -8501,7 +8501,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -8516,7 +8516,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -8556,7 +8556,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>40</v>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -8596,7 +8596,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>49</v>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -8636,7 +8636,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>49</v>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -8676,7 +8676,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>53</v>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -8716,16 +8716,16 @@
         <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="7">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>21</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -8756,7 +8756,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>62</v>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>14</v>
@@ -8796,7 +8796,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>64</v>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -8836,7 +8836,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>67</v>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -8876,7 +8876,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>69</v>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
@@ -8916,10 +8916,10 @@
         <v>25</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>19</v>
@@ -8928,7 +8928,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="7">
-        <v>12345678</v>
+        <v>1.2345678E7</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>22</v>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>14</v>
@@ -8956,7 +8956,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>76</v>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>14</v>
@@ -8996,7 +8996,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>80</v>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
@@ -9036,7 +9036,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>102</v>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>14</v>
@@ -9076,7 +9076,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>104</v>
@@ -9091,7 +9091,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>23</v>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>14</v>
@@ -9116,7 +9116,7 @@
         <v>106</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>108</v>
@@ -9137,17 +9137,17 @@
         <v>23</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>10</v>
@@ -9156,7 +9156,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>112</v>
@@ -9181,13 +9181,13 @@
       </c>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
@@ -9196,7 +9196,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>116</v>
@@ -9221,13 +9221,13 @@
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
@@ -9236,7 +9236,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>120</v>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -9276,7 +9276,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>18</v>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>14</v>
@@ -9316,10 +9316,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>19</v>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -9356,10 +9356,10 @@
         <v>25</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>19</v>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
         <v>14</v>
@@ -9396,7 +9396,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>131</v>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>14</v>
@@ -9436,7 +9436,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>135</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>14</v>
@@ -9476,10 +9476,10 @@
         <v>25</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>19</v>
@@ -9494,14 +9494,14 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>140</v>
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>14</v>
@@ -9516,10 +9516,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>19</v>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>14</v>
@@ -9556,10 +9556,10 @@
         <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>19</v>
@@ -9580,7 +9580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>14</v>
@@ -9595,10 +9595,10 @@
         <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>19</v>
@@ -9619,7 +9619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>14</v>
@@ -9634,10 +9634,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>19</v>
@@ -9658,13 +9658,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>9</v>
@@ -9673,7 +9673,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>85</v>
@@ -9695,13 +9695,13 @@
       </c>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
@@ -9710,7 +9710,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>90</v>
@@ -9733,13 +9733,13 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -9748,7 +9748,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>94</v>
@@ -9771,13 +9771,13 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -9786,7 +9786,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>98</v>
@@ -9809,31 +9809,31 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43">
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44">
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45">
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46">
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47">
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48">
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49">
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50">
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -9849,7 +9849,7 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -9865,7 +9865,7 @@
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>154</v>
@@ -9880,7 +9880,7 @@
         <v>25</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>157</v>
@@ -9901,11 +9901,11 @@
         <v>23</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N54" s="30"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
         <v>154</v>
@@ -9920,10 +9920,10 @@
         <v>25</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>19</v>
@@ -9941,11 +9941,11 @@
         <v>23</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>154</v>
@@ -9960,7 +9960,7 @@
         <v>25</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>163</v>
@@ -9981,11 +9981,11 @@
         <v>23</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
         <v>154</v>
@@ -10000,7 +10000,7 @@
         <v>16</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>166</v>
@@ -10021,11 +10021,11 @@
         <v>23</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N57" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>